--- a/logic/SpaCy/training_data.xlsx
+++ b/logic/SpaCy/training_data.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\chatbot-1.1.3\logic\SpaCy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0287816D-5493-4CA6-B656-8CB9DABCCB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246FF5F2-725A-4533-A691-A784613AB4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2115" windowWidth="16410" windowHeight="11295" xr2:uid="{94CEDFB2-1B98-48F3-8218-CEFE20B1FBF4}"/>
+    <workbookView xWindow="28695" yWindow="6330" windowWidth="16410" windowHeight="14145" xr2:uid="{94CEDFB2-1B98-48F3-8218-CEFE20B1FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="876">
   <si>
     <t>cls</t>
   </si>
@@ -1741,6 +1740,930 @@
   </si>
   <si>
     <t>I want you to repeat what I say</t>
+  </si>
+  <si>
+    <t>so tell me who are you</t>
+  </si>
+  <si>
+    <t>so who are you exactly</t>
+  </si>
+  <si>
+    <t>who exactly are you</t>
+  </si>
+  <si>
+    <t>what the hell is your name</t>
+  </si>
+  <si>
+    <t>what do you call yourself</t>
+  </si>
+  <si>
+    <t>can you clear the screen its getting a little cluttered</t>
+  </si>
+  <si>
+    <t>choose a random number for me</t>
+  </si>
+  <si>
+    <t>calculate compount interest for me</t>
+  </si>
+  <si>
+    <t>give me a random number</t>
+  </si>
+  <si>
+    <t>whats my name dude</t>
+  </si>
+  <si>
+    <t>convert hours to weeks to days to hours to minutes</t>
+  </si>
+  <si>
+    <t>I need to compute compount interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remind me to </t>
+  </si>
+  <si>
+    <t>select a number at random</t>
+  </si>
+  <si>
+    <t>generate lottery numbers for me</t>
+  </si>
+  <si>
+    <t>hello there</t>
+  </si>
+  <si>
+    <t>can you remind me of my name</t>
+  </si>
+  <si>
+    <t>calculate hours in weeks</t>
+  </si>
+  <si>
+    <t>can you help me with compound interest</t>
+  </si>
+  <si>
+    <t>set a reminder for</t>
+  </si>
+  <si>
+    <t>pick a number at random</t>
+  </si>
+  <si>
+    <t>give me some lottery numbers</t>
+  </si>
+  <si>
+    <t>lets play rock paper scissors</t>
+  </si>
+  <si>
+    <t>good morning</t>
+  </si>
+  <si>
+    <t>could you tell me what my name is</t>
+  </si>
+  <si>
+    <t>im feeling fantastic today</t>
+  </si>
+  <si>
+    <t>calculate hours in days</t>
+  </si>
+  <si>
+    <t>can you help me with compound interest calculations</t>
+  </si>
+  <si>
+    <t>I needto be reminded to</t>
+  </si>
+  <si>
+    <t>search on wikipedia please</t>
+  </si>
+  <si>
+    <t>pick a number randomly</t>
+  </si>
+  <si>
+    <t>I need lottery numbers</t>
+  </si>
+  <si>
+    <t>roll a dice for me</t>
+  </si>
+  <si>
+    <t>I challenge you to a game of rock paper scissors</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>do you know my name by chance</t>
+  </si>
+  <si>
+    <t>im in a great mood</t>
+  </si>
+  <si>
+    <t>calculate hours to</t>
+  </si>
+  <si>
+    <t>determine the compound interest on my savings</t>
+  </si>
+  <si>
+    <t>can you remind me to</t>
+  </si>
+  <si>
+    <t>look up something on wikipedia</t>
+  </si>
+  <si>
+    <t>generate a random number</t>
+  </si>
+  <si>
+    <t>can you generate some lottery numbers</t>
+  </si>
+  <si>
+    <t>give me a dice roll</t>
+  </si>
+  <si>
+    <t>rock paper scissors shoot</t>
+  </si>
+  <si>
+    <t>hey whats up</t>
+  </si>
+  <si>
+    <t>what do you have on file as my name</t>
+  </si>
+  <si>
+    <t>I apologize for that</t>
+  </si>
+  <si>
+    <t>im feeling awesome</t>
+  </si>
+  <si>
+    <t>go to youtube</t>
+  </si>
+  <si>
+    <t>open the GPT website</t>
+  </si>
+  <si>
+    <t>determine the equivalent of hours in weeks days hours minutes</t>
+  </si>
+  <si>
+    <t>how much will my investment grow with compound interest</t>
+  </si>
+  <si>
+    <t>remember to remind me about</t>
+  </si>
+  <si>
+    <t>find information about on wikipedia</t>
+  </si>
+  <si>
+    <t>I need a random number</t>
+  </si>
+  <si>
+    <t>pick lottery numbers for me</t>
+  </si>
+  <si>
+    <t>roll the dice please</t>
+  </si>
+  <si>
+    <t>wanna play rock paper scissors</t>
+  </si>
+  <si>
+    <t>hi there dude</t>
+  </si>
+  <si>
+    <t>whats your fucking name</t>
+  </si>
+  <si>
+    <t>I forgot my name can you tell me</t>
+  </si>
+  <si>
+    <t>im sorry for that</t>
+  </si>
+  <si>
+    <t>todays a great day</t>
+  </si>
+  <si>
+    <t>okay so whats your current hobby</t>
+  </si>
+  <si>
+    <t>access youtube</t>
+  </si>
+  <si>
+    <t>open the chat gpt website</t>
+  </si>
+  <si>
+    <t>find out how many weeks days hors and minutes are in a certain number of hours</t>
+  </si>
+  <si>
+    <t>compute the compound interest rate for me</t>
+  </si>
+  <si>
+    <t>I want a reminder for</t>
+  </si>
+  <si>
+    <t>get details on a topic from wikipedia</t>
+  </si>
+  <si>
+    <t>could you choose a number randomly</t>
+  </si>
+  <si>
+    <t>generate random lottery numbers</t>
+  </si>
+  <si>
+    <t>I need to roll a dice</t>
+  </si>
+  <si>
+    <t>create a picture for me</t>
+  </si>
+  <si>
+    <t>rock beats scissors paper covers rock lets play</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>may I ask your name</t>
+  </si>
+  <si>
+    <t>what name do you have for me</t>
+  </si>
+  <si>
+    <t>sorry about that</t>
+  </si>
+  <si>
+    <t>im feeling on top of the world</t>
+  </si>
+  <si>
+    <t>alright what is your hobby</t>
+  </si>
+  <si>
+    <t>load youtube</t>
+  </si>
+  <si>
+    <t>take me to the chat gpt website</t>
+  </si>
+  <si>
+    <t>can you say what im saying</t>
+  </si>
+  <si>
+    <t>get the breakdown of hours into weeks days hours and minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find out the compound interest </t>
+  </si>
+  <si>
+    <t>don’t let me forget to</t>
+  </si>
+  <si>
+    <t>wikipedia topic</t>
+  </si>
+  <si>
+    <t>random number please</t>
+  </si>
+  <si>
+    <t>choose lottery numbers for me</t>
+  </si>
+  <si>
+    <t>can you roll a dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generate a picture </t>
+  </si>
+  <si>
+    <t>tell me a joke please</t>
+  </si>
+  <si>
+    <t>how about a game of rock paper scissors</t>
+  </si>
+  <si>
+    <t>good afternoon</t>
+  </si>
+  <si>
+    <t>can you tell me your name</t>
+  </si>
+  <si>
+    <t>what did I input as my name</t>
+  </si>
+  <si>
+    <t>my apologies for that</t>
+  </si>
+  <si>
+    <t>am good</t>
+  </si>
+  <si>
+    <t>so whats your hobbies</t>
+  </si>
+  <si>
+    <t>take me to youtube</t>
+  </si>
+  <si>
+    <t>launch the chat gpt website</t>
+  </si>
+  <si>
+    <t>echo my words</t>
+  </si>
+  <si>
+    <t>convert hours to weeks days hours and minutes</t>
+  </si>
+  <si>
+    <t>I want to know how compound interest works</t>
+  </si>
+  <si>
+    <t>put a reminder on my calendar for</t>
+  </si>
+  <si>
+    <t>can you find the wikipedia page for a topic</t>
+  </si>
+  <si>
+    <t>select a number randomly for me</t>
+  </si>
+  <si>
+    <t>I want to play the lottery give me some numbers</t>
+  </si>
+  <si>
+    <t>roll a six-sides dice</t>
+  </si>
+  <si>
+    <t>I need an image</t>
+  </si>
+  <si>
+    <t>I could use a laugh tell me a joke</t>
+  </si>
+  <si>
+    <t>rock paper or scissors</t>
+  </si>
+  <si>
+    <t>good evening</t>
+  </si>
+  <si>
+    <t>how are you doing dude</t>
+  </si>
+  <si>
+    <t>what do you go by</t>
+  </si>
+  <si>
+    <t>can you tell me the name associated with this account</t>
+  </si>
+  <si>
+    <t>what version of windows am I using dude</t>
+  </si>
+  <si>
+    <t>im really sorry</t>
+  </si>
+  <si>
+    <t>am okay</t>
+  </si>
+  <si>
+    <t>alrighty your hobbies are</t>
+  </si>
+  <si>
+    <t>open up youtube</t>
+  </si>
+  <si>
+    <t>open up chat gpt</t>
+  </si>
+  <si>
+    <t>enable text to speech</t>
+  </si>
+  <si>
+    <t>mimic my speech</t>
+  </si>
+  <si>
+    <t>show me the conversion of hours into weeks</t>
+  </si>
+  <si>
+    <t>help me figure out the compound interest on my account</t>
+  </si>
+  <si>
+    <t>schedule a reminder for</t>
+  </si>
+  <si>
+    <t>please search wikipedia for a topic</t>
+  </si>
+  <si>
+    <t>choose a number at random</t>
+  </si>
+  <si>
+    <t>help me with lottery numbers</t>
+  </si>
+  <si>
+    <t>give me the outcome of a dice roll</t>
+  </si>
+  <si>
+    <t>can you make an image for me</t>
+  </si>
+  <si>
+    <t>can you analyze this for me</t>
+  </si>
+  <si>
+    <t>got any good jokes</t>
+  </si>
+  <si>
+    <t>im ready for a game of rock paper scissors</t>
+  </si>
+  <si>
+    <t>how are you today</t>
+  </si>
+  <si>
+    <t>what are you called</t>
+  </si>
+  <si>
+    <t>could you remind me what I told you my name is</t>
+  </si>
+  <si>
+    <t>can you tell me which windows os version I have</t>
+  </si>
+  <si>
+    <t>I feel bad im sorry</t>
+  </si>
+  <si>
+    <t>I am doing well</t>
+  </si>
+  <si>
+    <t>what do you do for fun</t>
+  </si>
+  <si>
+    <t>I want to watch youtube</t>
+  </si>
+  <si>
+    <t>activate text to speech</t>
+  </si>
+  <si>
+    <t>say the same thing im saying</t>
+  </si>
+  <si>
+    <t>translate hours into weeks</t>
+  </si>
+  <si>
+    <t>keep me on track with a reminder for</t>
+  </si>
+  <si>
+    <t>tell me what wikipedia says about a topic</t>
+  </si>
+  <si>
+    <t>generate a set of lottery numbers</t>
+  </si>
+  <si>
+    <t>roll a die</t>
+  </si>
+  <si>
+    <t>create a graphic</t>
+  </si>
+  <si>
+    <t>I need some analysis can you help</t>
+  </si>
+  <si>
+    <t>make me laugh please</t>
+  </si>
+  <si>
+    <t>lets settle this with rock paper scissors</t>
+  </si>
+  <si>
+    <t>hey whats up dude</t>
+  </si>
+  <si>
+    <t>how are you feeling</t>
+  </si>
+  <si>
+    <t>whats your title</t>
+  </si>
+  <si>
+    <t>do you remember the name I gave you</t>
+  </si>
+  <si>
+    <t>whats the windows os version on this computer</t>
+  </si>
+  <si>
+    <t>I want to apologize</t>
+  </si>
+  <si>
+    <t>im doing well thanks for asking</t>
+  </si>
+  <si>
+    <t>im feeling down</t>
+  </si>
+  <si>
+    <t>do you have any interests</t>
+  </si>
+  <si>
+    <t>can you open youtube for me</t>
+  </si>
+  <si>
+    <t>turn on speech synthesis</t>
+  </si>
+  <si>
+    <t>echo back what im saying</t>
+  </si>
+  <si>
+    <t>I am feeling lucky lets get some lotto numbers</t>
+  </si>
+  <si>
+    <t>I want to roll the dice</t>
+  </si>
+  <si>
+    <t>generate an illustration</t>
+  </si>
+  <si>
+    <t>analyzing this would be helpful</t>
+  </si>
+  <si>
+    <t>thanks for your help dude</t>
+  </si>
+  <si>
+    <t>entertain me with a joke please</t>
+  </si>
+  <si>
+    <t>whats the weather like today</t>
+  </si>
+  <si>
+    <t>choose your weapon rock paper or scissors</t>
+  </si>
+  <si>
+    <t>yo what is up</t>
+  </si>
+  <si>
+    <t>hows everything going</t>
+  </si>
+  <si>
+    <t>what should I call you by</t>
+  </si>
+  <si>
+    <t>im drawing a blank whats my name</t>
+  </si>
+  <si>
+    <t>im curious about my windows os version can you check</t>
+  </si>
+  <si>
+    <t>I owe you an apology</t>
+  </si>
+  <si>
+    <t>I am doing good thanks</t>
+  </si>
+  <si>
+    <t>im not doing so well</t>
+  </si>
+  <si>
+    <t>what are your hobbies bro</t>
+  </si>
+  <si>
+    <t>id like to go on youtube</t>
+  </si>
+  <si>
+    <t>start text to speech</t>
+  </si>
+  <si>
+    <t>id like you to say what I say</t>
+  </si>
+  <si>
+    <t>roll a standard dice</t>
+  </si>
+  <si>
+    <t>make me an image</t>
+  </si>
+  <si>
+    <t>merge pdf files for me</t>
+  </si>
+  <si>
+    <t>id like your analysis on this</t>
+  </si>
+  <si>
+    <t>thanks a lot dude</t>
+  </si>
+  <si>
+    <t>I need a chuckle tell me a joke</t>
+  </si>
+  <si>
+    <t>can you give me the weather forecast</t>
+  </si>
+  <si>
+    <t>I want to challenge you to a game of RPS</t>
+  </si>
+  <si>
+    <t>yo whats up</t>
+  </si>
+  <si>
+    <t>how are things</t>
+  </si>
+  <si>
+    <t>do you have a name</t>
+  </si>
+  <si>
+    <t>can you look up my name for me</t>
+  </si>
+  <si>
+    <t>which edition of windows is installed on this device</t>
+  </si>
+  <si>
+    <t>im deeply sorry</t>
+  </si>
+  <si>
+    <t>I am good dude</t>
+  </si>
+  <si>
+    <t>im feeling sad</t>
+  </si>
+  <si>
+    <t>are there any activities that you enjoy</t>
+  </si>
+  <si>
+    <t>access the youtube platform</t>
+  </si>
+  <si>
+    <t>engage text to speech mode</t>
+  </si>
+  <si>
+    <t>I want you to repeat after me</t>
+  </si>
+  <si>
+    <t>design an image for me</t>
+  </si>
+  <si>
+    <t>combine multiple pdfs</t>
+  </si>
+  <si>
+    <t>launch the application</t>
+  </si>
+  <si>
+    <t>I want an app to be closed</t>
+  </si>
+  <si>
+    <t>please analyze</t>
+  </si>
+  <si>
+    <t>I appreciate it thanks</t>
+  </si>
+  <si>
+    <t>exit the program</t>
+  </si>
+  <si>
+    <t>share a joke with me</t>
+  </si>
+  <si>
+    <t>tell me about todays weather</t>
+  </si>
+  <si>
+    <t>lets play some RPS</t>
+  </si>
+  <si>
+    <t>hi dude</t>
+  </si>
+  <si>
+    <t>hows your day been</t>
+  </si>
+  <si>
+    <t>whats your moniker</t>
+  </si>
+  <si>
+    <t>what did I enter as my name when I signed up</t>
+  </si>
+  <si>
+    <t>whats the operating system version on my pc</t>
+  </si>
+  <si>
+    <t>please forgive me</t>
+  </si>
+  <si>
+    <t>I am super well</t>
+  </si>
+  <si>
+    <t>im feeling low</t>
+  </si>
+  <si>
+    <t>any hobbies you have that youre passionate about</t>
+  </si>
+  <si>
+    <t>direct me to youtube please</t>
+  </si>
+  <si>
+    <t>enable speech output</t>
+  </si>
+  <si>
+    <t>cope me please</t>
+  </si>
+  <si>
+    <t>I want to generate a picture</t>
+  </si>
+  <si>
+    <t>I need to merge pdf documents</t>
+  </si>
+  <si>
+    <t>run the app</t>
+  </si>
+  <si>
+    <t>can you help me close an app please</t>
+  </si>
+  <si>
+    <t>analytical assistance required</t>
+  </si>
+  <si>
+    <t>thanks for the assistance</t>
+  </si>
+  <si>
+    <t>quit the application</t>
+  </si>
+  <si>
+    <t>do you know any funny jokes</t>
+  </si>
+  <si>
+    <t>I need to know the weather conditions</t>
+  </si>
+  <si>
+    <t>hey want to play rock paper scissors with me</t>
+  </si>
+  <si>
+    <t>are you doing okay</t>
+  </si>
+  <si>
+    <t>could you share your name with me</t>
+  </si>
+  <si>
+    <t>can you provide information about the windows OS version</t>
+  </si>
+  <si>
+    <t>forgive me please</t>
+  </si>
+  <si>
+    <t>today is a great day for me</t>
+  </si>
+  <si>
+    <t>im not feeling great</t>
+  </si>
+  <si>
+    <t>do you like to do anything in your freetime</t>
+  </si>
+  <si>
+    <t>take me to the youtube site</t>
+  </si>
+  <si>
+    <t>initiate text to voice</t>
+  </si>
+  <si>
+    <t>mimic me please</t>
+  </si>
+  <si>
+    <t>create a visual</t>
+  </si>
+  <si>
+    <t>can you join pdf files together</t>
+  </si>
+  <si>
+    <t>initiate the program</t>
+  </si>
+  <si>
+    <t>I need to close sommething can you close an app</t>
+  </si>
+  <si>
+    <t>can you provide some analysis</t>
+  </si>
+  <si>
+    <t>thanks for your support</t>
+  </si>
+  <si>
+    <t>hit me with a joke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whats the weather forecast for </t>
+  </si>
+  <si>
+    <t>how are you holding up</t>
+  </si>
+  <si>
+    <t>im feeling abit blue</t>
+  </si>
+  <si>
+    <t>activate voice synthesis</t>
+  </si>
+  <si>
+    <t>please repeat after me</t>
+  </si>
+  <si>
+    <t>merge several pdfs into one</t>
+  </si>
+  <si>
+    <t>open this software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">im curious about your analysis </t>
+  </si>
+  <si>
+    <t>thank you very much</t>
+  </si>
+  <si>
+    <t>end the session</t>
+  </si>
+  <si>
+    <t>im in the mood for a joke tell me one</t>
+  </si>
+  <si>
+    <t>is it going to rain today</t>
+  </si>
+  <si>
+    <t>hows life treating you</t>
+  </si>
+  <si>
+    <t>im feeling upset</t>
+  </si>
+  <si>
+    <t>switch on text to audio</t>
+  </si>
+  <si>
+    <t>combine pdf files into a single doc</t>
+  </si>
+  <si>
+    <t>run the apps</t>
+  </si>
+  <si>
+    <t>close the apps</t>
+  </si>
+  <si>
+    <t>analysis needed</t>
+  </si>
+  <si>
+    <t>im grateful thanks</t>
+  </si>
+  <si>
+    <t>terminate the session</t>
+  </si>
+  <si>
+    <t>give me an update on the forecast for today</t>
+  </si>
+  <si>
+    <t>turn on the voice reader</t>
+  </si>
+  <si>
+    <t>join my pdfs together</t>
+  </si>
+  <si>
+    <t>can you open an application for me</t>
+  </si>
+  <si>
+    <t>could you analyze this text</t>
+  </si>
+  <si>
+    <t>thanks for your time</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>tell me if its going to be sunny</t>
+  </si>
+  <si>
+    <t>merge multiple pdf files into one for me please</t>
+  </si>
+  <si>
+    <t>can you start an app please</t>
+  </si>
+  <si>
+    <t>much appreciated thanks</t>
+  </si>
+  <si>
+    <t>shut down please</t>
+  </si>
+  <si>
+    <t>whats the temperature outside</t>
+  </si>
+  <si>
+    <t>I need to launch something can you help</t>
+  </si>
+  <si>
+    <t>thanks for everything</t>
+  </si>
+  <si>
+    <t>please shut down</t>
+  </si>
+  <si>
+    <t>im curious about the weather can you tell me</t>
+  </si>
+  <si>
+    <t>can you assist me in opening an application</t>
+  </si>
+  <si>
+    <t>wrap it up</t>
+  </si>
+  <si>
+    <t>could you initiate an app for me</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>id like to open an application could you assist</t>
+  </si>
+  <si>
+    <t>say goodbye</t>
+  </si>
+  <si>
+    <t>can you help me launch an app</t>
+  </si>
+  <si>
+    <t>I need to start something could you open an app</t>
+  </si>
+  <si>
+    <t>could you assist me in launching an application</t>
+  </si>
+  <si>
+    <t>can you help me with an app please</t>
+  </si>
+  <si>
+    <t>I want an app to be opened</t>
+  </si>
+  <si>
+    <t>today is going quite well for me</t>
+  </si>
+  <si>
+    <t>please go ahead and repeat after what I will say</t>
   </si>
 </sst>
 </file>
@@ -1793,6 +2716,57 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB8989F1-9511-4396-A6C2-1CF7792687C0}" name="Table1" displayName="Table1" ref="A1:AP100" totalsRowShown="0">
+  <autoFilter ref="A1:AP100" xr:uid="{AB8989F1-9511-4396-A6C2-1CF7792687C0}"/>
+  <tableColumns count="42">
+    <tableColumn id="1" xr3:uid="{8ABE6F0E-82B0-450D-8004-A121376D8BF2}" name="cls"/>
+    <tableColumn id="2" xr3:uid="{B8038201-8AAC-4F16-AA91-706A317B2594}" name="help"/>
+    <tableColumn id="3" xr3:uid="{6FBC3E0F-9AEB-429E-A141-7AE54BABEA09}" name="time"/>
+    <tableColumn id="4" xr3:uid="{F12942A7-4A5C-4055-8AAF-E33179566E47}" name="open_app"/>
+    <tableColumn id="5" xr3:uid="{83EC9054-472B-4261-94B6-75524491F386}" name="close_app"/>
+    <tableColumn id="6" xr3:uid="{CB79F2ED-1BF5-4635-820D-981BD2B44ED8}" name="analyze"/>
+    <tableColumn id="7" xr3:uid="{D50AD5E2-6854-46BF-AD4C-F0EEF89A4DD7}" name="math"/>
+    <tableColumn id="8" xr3:uid="{19F62C66-AB1B-45BC-9369-0F5E2EF1D629}" name="thanks"/>
+    <tableColumn id="9" xr3:uid="{BE10C221-9EB7-4C27-B164-D46517FF0BBB}" name="quit"/>
+    <tableColumn id="10" xr3:uid="{50FCC357-ED8D-4C84-9C26-41793C243FC3}" name="tell_joke"/>
+    <tableColumn id="11" xr3:uid="{CFEFE155-C4A1-4E47-AA10-CCCC18FB3FEE}" name="weather"/>
+    <tableColumn id="12" xr3:uid="{69BFEEC8-39FF-44AA-B9B9-F1E289E5E51F}" name="rock_paper_scissors"/>
+    <tableColumn id="13" xr3:uid="{7507E41C-7136-4BF4-932A-8CBE286EC4AF}" name="greetings"/>
+    <tableColumn id="14" xr3:uid="{8911E4D8-BD00-4C4C-A178-7EDD0E81BD75}" name="how_are_you"/>
+    <tableColumn id="15" xr3:uid="{D90201F3-BE86-46D0-818A-505D25E34198}" name="what_is_your_name"/>
+    <tableColumn id="16" xr3:uid="{3E764299-C284-429A-8702-DE186DDE4413}" name="my_name"/>
+    <tableColumn id="17" xr3:uid="{FA58D2E7-9C14-4B63-AAA7-75FBF746A618}" name="windows"/>
+    <tableColumn id="18" xr3:uid="{E46028B3-33B5-4721-AADA-340A053F0B97}" name="sorry"/>
+    <tableColumn id="19" xr3:uid="{E449B236-0C82-49F9-8BFC-60A8116C7853}" name="feeling_good"/>
+    <tableColumn id="20" xr3:uid="{690E0B3A-2EAC-4D10-93D8-080A87ACC18C}" name="feeling_bad"/>
+    <tableColumn id="21" xr3:uid="{63570C01-6837-4DD3-BD56-B2BA74FE2628}" name="discuss_hobbies"/>
+    <tableColumn id="22" xr3:uid="{4B262020-998C-4179-A793-245A1033F6DA}" name="xac_hellven"/>
+    <tableColumn id="23" xr3:uid="{4DB73827-A9A7-438A-8784-02CFA7287C89}" name="youtube"/>
+    <tableColumn id="24" xr3:uid="{F7C40981-5E05-458B-8EC4-E042757B1B20}" name="GPT"/>
+    <tableColumn id="25" xr3:uid="{3369E653-EA34-4BC1-8F8D-46D632164D11}" name="enable_tts"/>
+    <tableColumn id="26" xr3:uid="{1873A256-D445-46FD-8B03-4D660D1A032A}" name="disable_tts"/>
+    <tableColumn id="27" xr3:uid="{A8BC9EEC-3FB6-4885-AF00-D501813B44A4}" name="angry"/>
+    <tableColumn id="28" xr3:uid="{797103E1-857C-4D8E-971A-41144FA62A6B}" name="copy"/>
+    <tableColumn id="29" xr3:uid="{1D40CC0A-3D8F-46E4-92A8-A4E864EA2496}" name="time_conversion"/>
+    <tableColumn id="30" xr3:uid="{7DBB3E9C-E841-4617-B546-D220641AA3EC}" name="calculate_compound_interest"/>
+    <tableColumn id="31" xr3:uid="{13024436-4408-4C0B-8FE2-9C9870AF0D27}" name="remind"/>
+    <tableColumn id="32" xr3:uid="{1EACAA06-07A3-4881-9278-0EAEE996AB63}" name="wiki"/>
+    <tableColumn id="33" xr3:uid="{E13E6777-CD8B-48BB-8370-B6E80960AF15}" name="random_number"/>
+    <tableColumn id="34" xr3:uid="{E808A63F-716A-4E22-B08C-76C71FEFEEA2}" name="lottery"/>
+    <tableColumn id="35" xr3:uid="{08E960B6-CC16-466D-BF71-B103D3B3E862}" name="dice"/>
+    <tableColumn id="36" xr3:uid="{084EB521-1F3E-486C-9F7B-9F5AFB38AA78}" name="image_generator"/>
+    <tableColumn id="37" xr3:uid="{B780E3F4-1426-4E44-BE92-4C5D74053D29}" name="merge_pdfs"/>
+    <tableColumn id="38" xr3:uid="{F8461DA5-1091-44B8-BE8E-CB5546165424}" name="pass_check"/>
+    <tableColumn id="39" xr3:uid="{2BD59183-5A1B-470A-ABE1-05EF995D8F03}" name="png_to_pdf"/>
+    <tableColumn id="40" xr3:uid="{A85EC536-BB4A-4269-AF73-AEB1FA395EA0}" name="say_something"/>
+    <tableColumn id="41" xr3:uid="{237029E5-09D5-4C59-90A2-647108EE029C}" name="start_pomo"/>
+    <tableColumn id="42" xr3:uid="{4C50BBE5-FA03-4AC8-9D62-56B67FD0ADC7}" name="stop_pomo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2112,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDA376-956F-4742-8649-35ECB5332B72}">
-  <dimension ref="A1:AP91"/>
+  <dimension ref="A1:AP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,6 +3340,9 @@
       <c r="AM2" t="s">
         <v>351</v>
       </c>
+      <c r="AN2" t="s">
+        <v>509</v>
+      </c>
       <c r="AO2" t="s">
         <v>353</v>
       </c>
@@ -2595,6 +3572,9 @@
       <c r="AF4" t="s">
         <v>324</v>
       </c>
+      <c r="AG4" t="s">
+        <v>574</v>
+      </c>
       <c r="AH4" t="s">
         <v>332</v>
       </c>
@@ -2708,11 +3688,17 @@
       <c r="AC5" t="s">
         <v>314</v>
       </c>
+      <c r="AD5" t="s">
+        <v>575</v>
+      </c>
       <c r="AE5" t="s">
         <v>321</v>
       </c>
       <c r="AF5" t="s">
         <v>325</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>576</v>
       </c>
       <c r="AH5" t="s">
         <v>333</v>
@@ -2782,6 +3768,12 @@
       <c r="N6" t="s">
         <v>210</v>
       </c>
+      <c r="O6" t="s">
+        <v>568</v>
+      </c>
+      <c r="P6" t="s">
+        <v>577</v>
+      </c>
       <c r="Q6" t="s">
         <v>222</v>
       </c>
@@ -2818,8 +3810,23 @@
       <c r="AB6" t="s">
         <v>308</v>
       </c>
+      <c r="AC6" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>580</v>
+      </c>
       <c r="AF6" t="s">
         <v>326</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>582</v>
       </c>
       <c r="AI6" t="s">
         <v>338</v>
@@ -2877,9 +3884,18 @@
       <c r="K7" t="s">
         <v>187</v>
       </c>
+      <c r="M7" t="s">
+        <v>583</v>
+      </c>
       <c r="N7" t="s">
         <v>11</v>
       </c>
+      <c r="O7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P7" t="s">
+        <v>584</v>
+      </c>
       <c r="Q7" t="s">
         <v>558</v>
       </c>
@@ -2916,8 +3932,23 @@
       <c r="AB7" t="s">
         <v>309</v>
       </c>
+      <c r="AC7" t="s">
+        <v>585</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>587</v>
+      </c>
       <c r="AF7" t="s">
         <v>327</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>588</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>589</v>
       </c>
       <c r="AI7" t="s">
         <v>339</v>
@@ -2975,15 +4006,30 @@
       <c r="K8" t="s">
         <v>188</v>
       </c>
+      <c r="L8" t="s">
+        <v>590</v>
+      </c>
+      <c r="M8" t="s">
+        <v>591</v>
+      </c>
       <c r="N8" t="s">
         <v>478</v>
       </c>
+      <c r="O8" t="s">
+        <v>570</v>
+      </c>
+      <c r="P8" t="s">
+        <v>592</v>
+      </c>
       <c r="Q8" t="s">
         <v>559</v>
       </c>
       <c r="R8" t="s">
         <v>228</v>
       </c>
+      <c r="S8" t="s">
+        <v>593</v>
+      </c>
       <c r="T8" t="s">
         <v>239</v>
       </c>
@@ -3010,6 +4056,27 @@
       </c>
       <c r="AB8" t="s">
         <v>310</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>594</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>597</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>598</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>599</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>600</v>
       </c>
       <c r="AJ8" t="s">
         <v>532</v>
@@ -3064,15 +4131,30 @@
       <c r="K9" t="s">
         <v>189</v>
       </c>
+      <c r="L9" t="s">
+        <v>601</v>
+      </c>
+      <c r="M9" t="s">
+        <v>602</v>
+      </c>
       <c r="N9" t="s">
         <v>210</v>
       </c>
+      <c r="O9" t="s">
+        <v>571</v>
+      </c>
+      <c r="P9" t="s">
+        <v>603</v>
+      </c>
       <c r="Q9" t="s">
         <v>560</v>
       </c>
       <c r="R9" t="s">
         <v>229</v>
       </c>
+      <c r="S9" t="s">
+        <v>604</v>
+      </c>
       <c r="T9" t="s">
         <v>551</v>
       </c>
@@ -3099,6 +4181,27 @@
       </c>
       <c r="AB9" t="s">
         <v>565</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>607</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>608</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>609</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>611</v>
       </c>
       <c r="AJ9" t="s">
         <v>533</v>
@@ -3153,12 +4256,30 @@
       <c r="K10" t="s">
         <v>190</v>
       </c>
+      <c r="L10" t="s">
+        <v>612</v>
+      </c>
+      <c r="M10" t="s">
+        <v>613</v>
+      </c>
       <c r="N10" t="s">
         <v>479</v>
       </c>
+      <c r="O10" t="s">
+        <v>572</v>
+      </c>
+      <c r="P10" t="s">
+        <v>614</v>
+      </c>
       <c r="Q10" t="s">
         <v>561</v>
       </c>
+      <c r="R10" t="s">
+        <v>615</v>
+      </c>
+      <c r="S10" t="s">
+        <v>616</v>
+      </c>
       <c r="T10" t="s">
         <v>552</v>
       </c>
@@ -3168,6 +4289,12 @@
       <c r="V10" t="s">
         <v>474</v>
       </c>
+      <c r="W10" t="s">
+        <v>617</v>
+      </c>
+      <c r="X10" t="s">
+        <v>618</v>
+      </c>
       <c r="Y10" t="s">
         <v>269</v>
       </c>
@@ -3179,6 +4306,27 @@
       </c>
       <c r="AB10" t="s">
         <v>566</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>619</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>622</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>623</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>624</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>625</v>
       </c>
       <c r="AJ10" t="s">
         <v>534</v>
@@ -3233,18 +4381,45 @@
       <c r="K11" t="s">
         <v>191</v>
       </c>
+      <c r="L11" t="s">
+        <v>626</v>
+      </c>
+      <c r="M11" t="s">
+        <v>627</v>
+      </c>
       <c r="N11" t="s">
         <v>480</v>
       </c>
+      <c r="O11" t="s">
+        <v>628</v>
+      </c>
+      <c r="P11" t="s">
+        <v>629</v>
+      </c>
       <c r="Q11" t="s">
         <v>562</v>
       </c>
+      <c r="R11" t="s">
+        <v>630</v>
+      </c>
+      <c r="S11" t="s">
+        <v>631</v>
+      </c>
       <c r="T11" t="s">
         <v>553</v>
       </c>
+      <c r="U11" t="s">
+        <v>632</v>
+      </c>
       <c r="V11" t="s">
         <v>475</v>
       </c>
+      <c r="W11" t="s">
+        <v>633</v>
+      </c>
+      <c r="X11" t="s">
+        <v>634</v>
+      </c>
       <c r="Y11" t="s">
         <v>466</v>
       </c>
@@ -3256,6 +4431,30 @@
       </c>
       <c r="AB11" t="s">
         <v>567</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>635</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>637</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>638</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>639</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>640</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>641</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>642</v>
       </c>
       <c r="AK11" t="s">
         <v>523</v>
@@ -3304,18 +4503,45 @@
       <c r="K12" t="s">
         <v>192</v>
       </c>
+      <c r="L12" t="s">
+        <v>643</v>
+      </c>
+      <c r="M12" t="s">
+        <v>644</v>
+      </c>
       <c r="N12" t="s">
         <v>481</v>
       </c>
+      <c r="O12" t="s">
+        <v>645</v>
+      </c>
+      <c r="P12" t="s">
+        <v>646</v>
+      </c>
       <c r="Q12" t="s">
         <v>563</v>
       </c>
+      <c r="R12" t="s">
+        <v>647</v>
+      </c>
+      <c r="S12" t="s">
+        <v>648</v>
+      </c>
       <c r="T12" t="s">
         <v>554</v>
       </c>
+      <c r="U12" t="s">
+        <v>649</v>
+      </c>
       <c r="V12" t="s">
         <v>476</v>
       </c>
+      <c r="W12" t="s">
+        <v>650</v>
+      </c>
+      <c r="X12" t="s">
+        <v>651</v>
+      </c>
       <c r="Y12" t="s">
         <v>467</v>
       </c>
@@ -3324,6 +4550,33 @@
       </c>
       <c r="AA12" t="s">
         <v>298</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>652</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>654</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>655</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>656</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>658</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>659</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>660</v>
       </c>
       <c r="AK12" t="s">
         <v>524</v>
@@ -3366,18 +4619,48 @@
       <c r="I13" t="s">
         <v>165</v>
       </c>
+      <c r="J13" t="s">
+        <v>661</v>
+      </c>
       <c r="K13" t="s">
         <v>193</v>
       </c>
+      <c r="L13" t="s">
+        <v>662</v>
+      </c>
+      <c r="M13" t="s">
+        <v>663</v>
+      </c>
       <c r="N13" t="s">
         <v>482</v>
       </c>
+      <c r="O13" t="s">
+        <v>664</v>
+      </c>
+      <c r="P13" t="s">
+        <v>665</v>
+      </c>
+      <c r="R13" t="s">
+        <v>666</v>
+      </c>
+      <c r="S13" t="s">
+        <v>667</v>
+      </c>
       <c r="T13" t="s">
         <v>555</v>
       </c>
+      <c r="U13" t="s">
+        <v>668</v>
+      </c>
       <c r="V13" t="s">
         <v>477</v>
       </c>
+      <c r="W13" t="s">
+        <v>669</v>
+      </c>
+      <c r="X13" t="s">
+        <v>670</v>
+      </c>
       <c r="Y13" t="s">
         <v>468</v>
       </c>
@@ -3386,6 +4669,33 @@
       </c>
       <c r="AA13" t="s">
         <v>299</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>673</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>675</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>677</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>678</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>679</v>
       </c>
       <c r="AK13" t="s">
         <v>525</v>
@@ -3428,17 +4738,83 @@
       <c r="I14" t="s">
         <v>166</v>
       </c>
+      <c r="J14" t="s">
+        <v>680</v>
+      </c>
       <c r="K14" t="s">
         <v>194</v>
       </c>
+      <c r="L14" t="s">
+        <v>681</v>
+      </c>
+      <c r="M14" t="s">
+        <v>682</v>
+      </c>
+      <c r="N14" t="s">
+        <v>683</v>
+      </c>
+      <c r="O14" t="s">
+        <v>684</v>
+      </c>
+      <c r="P14" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>686</v>
+      </c>
+      <c r="R14" t="s">
+        <v>687</v>
+      </c>
+      <c r="S14" t="s">
+        <v>688</v>
+      </c>
       <c r="T14" t="s">
         <v>556</v>
       </c>
+      <c r="U14" t="s">
+        <v>689</v>
+      </c>
+      <c r="W14" t="s">
+        <v>690</v>
+      </c>
+      <c r="X14" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>692</v>
+      </c>
       <c r="Z14" t="s">
         <v>281</v>
       </c>
       <c r="AA14" t="s">
         <v>300</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>693</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>694</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>697</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>698</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>699</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>700</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>701</v>
       </c>
       <c r="AK14" t="s">
         <v>526</v>
@@ -3469,6 +4845,9 @@
       <c r="D15" t="s">
         <v>459</v>
       </c>
+      <c r="F15" t="s">
+        <v>702</v>
+      </c>
       <c r="G15" t="s">
         <v>133</v>
       </c>
@@ -3478,17 +4857,71 @@
       <c r="I15" t="s">
         <v>167</v>
       </c>
+      <c r="J15" t="s">
+        <v>703</v>
+      </c>
       <c r="K15" t="s">
         <v>195</v>
       </c>
+      <c r="L15" t="s">
+        <v>704</v>
+      </c>
+      <c r="N15" t="s">
+        <v>705</v>
+      </c>
+      <c r="O15" t="s">
+        <v>706</v>
+      </c>
+      <c r="P15" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>708</v>
+      </c>
+      <c r="R15" t="s">
+        <v>709</v>
+      </c>
+      <c r="S15" t="s">
+        <v>710</v>
+      </c>
       <c r="T15" t="s">
         <v>557</v>
       </c>
+      <c r="U15" t="s">
+        <v>711</v>
+      </c>
+      <c r="W15" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>713</v>
+      </c>
       <c r="Z15" t="s">
         <v>282</v>
       </c>
       <c r="AA15" t="s">
         <v>301</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>714</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>715</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>717</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>718</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>719</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>720</v>
       </c>
       <c r="AK15" t="s">
         <v>527</v>
@@ -3510,6 +4943,9 @@
       <c r="D16" t="s">
         <v>460</v>
       </c>
+      <c r="F16" t="s">
+        <v>721</v>
+      </c>
       <c r="G16" t="s">
         <v>134</v>
       </c>
@@ -3519,20 +4955,71 @@
       <c r="I16" t="s">
         <v>168</v>
       </c>
+      <c r="J16" t="s">
+        <v>722</v>
+      </c>
       <c r="K16" t="s">
         <v>196</v>
       </c>
+      <c r="L16" t="s">
+        <v>723</v>
+      </c>
+      <c r="M16" t="s">
+        <v>724</v>
+      </c>
+      <c r="N16" t="s">
+        <v>725</v>
+      </c>
+      <c r="O16" t="s">
+        <v>726</v>
+      </c>
+      <c r="P16" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>728</v>
+      </c>
+      <c r="R16" t="s">
+        <v>729</v>
+      </c>
+      <c r="S16" t="s">
+        <v>730</v>
+      </c>
+      <c r="T16" t="s">
+        <v>731</v>
+      </c>
+      <c r="U16" t="s">
+        <v>732</v>
+      </c>
+      <c r="W16" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>734</v>
+      </c>
       <c r="Z16" t="s">
         <v>283</v>
       </c>
       <c r="AA16" t="s">
         <v>302</v>
       </c>
+      <c r="AB16" t="s">
+        <v>735</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>736</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>737</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>738</v>
+      </c>
       <c r="AK16" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3545,20 +5032,80 @@
       <c r="D17" t="s">
         <v>461</v>
       </c>
+      <c r="F17" t="s">
+        <v>739</v>
+      </c>
       <c r="G17" t="s">
         <v>135</v>
       </c>
+      <c r="H17" t="s">
+        <v>740</v>
+      </c>
       <c r="I17" t="s">
         <v>169</v>
       </c>
+      <c r="J17" t="s">
+        <v>741</v>
+      </c>
+      <c r="K17" t="s">
+        <v>742</v>
+      </c>
+      <c r="L17" t="s">
+        <v>743</v>
+      </c>
+      <c r="M17" t="s">
+        <v>744</v>
+      </c>
+      <c r="N17" t="s">
+        <v>745</v>
+      </c>
+      <c r="O17" t="s">
+        <v>746</v>
+      </c>
+      <c r="P17" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>748</v>
+      </c>
+      <c r="R17" t="s">
+        <v>749</v>
+      </c>
+      <c r="S17" t="s">
+        <v>750</v>
+      </c>
+      <c r="T17" t="s">
+        <v>751</v>
+      </c>
+      <c r="U17" t="s">
+        <v>752</v>
+      </c>
+      <c r="W17" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>754</v>
+      </c>
       <c r="Z17" t="s">
         <v>284</v>
       </c>
       <c r="AA17" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" t="s">
+        <v>755</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>756</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>757</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -3571,17 +5118,74 @@
       <c r="D18" t="s">
         <v>462</v>
       </c>
+      <c r="F18" t="s">
+        <v>759</v>
+      </c>
       <c r="G18" t="s">
         <v>136</v>
       </c>
+      <c r="H18" t="s">
+        <v>760</v>
+      </c>
       <c r="I18" t="s">
         <v>170</v>
       </c>
+      <c r="J18" t="s">
+        <v>761</v>
+      </c>
+      <c r="K18" t="s">
+        <v>762</v>
+      </c>
+      <c r="L18" t="s">
+        <v>763</v>
+      </c>
+      <c r="M18" t="s">
+        <v>764</v>
+      </c>
+      <c r="N18" t="s">
+        <v>765</v>
+      </c>
+      <c r="O18" t="s">
+        <v>766</v>
+      </c>
+      <c r="P18" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>768</v>
+      </c>
+      <c r="R18" t="s">
+        <v>769</v>
+      </c>
+      <c r="S18" t="s">
+        <v>770</v>
+      </c>
+      <c r="T18" t="s">
+        <v>771</v>
+      </c>
+      <c r="U18" t="s">
+        <v>772</v>
+      </c>
+      <c r="W18" t="s">
+        <v>773</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>774</v>
+      </c>
       <c r="Z18" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" t="s">
+        <v>775</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>776</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -3591,14 +5195,80 @@
       <c r="C19" t="s">
         <v>94</v>
       </c>
+      <c r="D19" t="s">
+        <v>778</v>
+      </c>
+      <c r="E19" t="s">
+        <v>779</v>
+      </c>
+      <c r="F19" t="s">
+        <v>780</v>
+      </c>
       <c r="G19" t="s">
         <v>137</v>
       </c>
+      <c r="H19" t="s">
+        <v>781</v>
+      </c>
+      <c r="I19" t="s">
+        <v>782</v>
+      </c>
+      <c r="J19" t="s">
+        <v>783</v>
+      </c>
+      <c r="K19" t="s">
+        <v>784</v>
+      </c>
+      <c r="L19" t="s">
+        <v>785</v>
+      </c>
+      <c r="M19" t="s">
+        <v>786</v>
+      </c>
+      <c r="N19" t="s">
+        <v>787</v>
+      </c>
+      <c r="O19" t="s">
+        <v>788</v>
+      </c>
+      <c r="P19" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>790</v>
+      </c>
+      <c r="R19" t="s">
+        <v>791</v>
+      </c>
+      <c r="S19" t="s">
+        <v>792</v>
+      </c>
+      <c r="T19" t="s">
+        <v>793</v>
+      </c>
+      <c r="U19" t="s">
+        <v>794</v>
+      </c>
+      <c r="W19" t="s">
+        <v>795</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>796</v>
+      </c>
       <c r="Z19" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" t="s">
+        <v>797</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>798</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -3608,14 +5278,74 @@
       <c r="C20" t="s">
         <v>95</v>
       </c>
+      <c r="D20" t="s">
+        <v>800</v>
+      </c>
+      <c r="E20" t="s">
+        <v>801</v>
+      </c>
+      <c r="F20" t="s">
+        <v>802</v>
+      </c>
       <c r="G20" t="s">
         <v>138</v>
       </c>
+      <c r="H20" t="s">
+        <v>803</v>
+      </c>
+      <c r="I20" t="s">
+        <v>804</v>
+      </c>
+      <c r="J20" t="s">
+        <v>805</v>
+      </c>
+      <c r="K20" t="s">
+        <v>806</v>
+      </c>
+      <c r="L20" t="s">
+        <v>807</v>
+      </c>
+      <c r="N20" t="s">
+        <v>808</v>
+      </c>
+      <c r="O20" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>810</v>
+      </c>
+      <c r="R20" t="s">
+        <v>811</v>
+      </c>
+      <c r="S20" t="s">
+        <v>812</v>
+      </c>
+      <c r="T20" t="s">
+        <v>813</v>
+      </c>
+      <c r="U20" t="s">
+        <v>814</v>
+      </c>
+      <c r="W20" t="s">
+        <v>815</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>816</v>
+      </c>
       <c r="Z20" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" t="s">
+        <v>817</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>818</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -3625,14 +5355,53 @@
       <c r="C21" t="s">
         <v>443</v>
       </c>
+      <c r="D21" t="s">
+        <v>820</v>
+      </c>
+      <c r="E21" t="s">
+        <v>821</v>
+      </c>
+      <c r="F21" t="s">
+        <v>822</v>
+      </c>
       <c r="G21" t="s">
         <v>139</v>
       </c>
+      <c r="H21" t="s">
+        <v>823</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>824</v>
+      </c>
+      <c r="K21" t="s">
+        <v>825</v>
+      </c>
+      <c r="N21" t="s">
+        <v>826</v>
+      </c>
+      <c r="S21" t="s">
+        <v>874</v>
+      </c>
+      <c r="T21" t="s">
+        <v>827</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>828</v>
+      </c>
       <c r="Z21" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21" t="s">
+        <v>829</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>365</v>
       </c>
@@ -3642,11 +5411,47 @@
       <c r="C22" t="s">
         <v>444</v>
       </c>
+      <c r="D22" t="s">
+        <v>831</v>
+      </c>
+      <c r="E22" t="s">
+        <v>801</v>
+      </c>
+      <c r="F22" t="s">
+        <v>832</v>
+      </c>
       <c r="G22" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>833</v>
+      </c>
+      <c r="I22" t="s">
+        <v>834</v>
+      </c>
+      <c r="J22" t="s">
+        <v>835</v>
+      </c>
+      <c r="K22" t="s">
+        <v>836</v>
+      </c>
+      <c r="N22" t="s">
+        <v>837</v>
+      </c>
+      <c r="T22" t="s">
+        <v>838</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>839</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>875</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -3656,11 +5461,35 @@
       <c r="C23" t="s">
         <v>445</v>
       </c>
+      <c r="D23" t="s">
+        <v>841</v>
+      </c>
+      <c r="E23" t="s">
+        <v>842</v>
+      </c>
+      <c r="F23" t="s">
+        <v>843</v>
+      </c>
       <c r="G23" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>844</v>
+      </c>
+      <c r="I23" t="s">
+        <v>845</v>
+      </c>
+      <c r="K23" t="s">
+        <v>846</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>847</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>367</v>
       </c>
@@ -3670,11 +5499,29 @@
       <c r="C24" t="s">
         <v>446</v>
       </c>
+      <c r="D24" t="s">
+        <v>849</v>
+      </c>
+      <c r="F24" t="s">
+        <v>850</v>
+      </c>
       <c r="G24" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>851</v>
+      </c>
+      <c r="I24" t="s">
+        <v>852</v>
+      </c>
+      <c r="K24" t="s">
+        <v>853</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>368</v>
       </c>
@@ -3684,8 +5531,20 @@
       <c r="C25" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>855</v>
+      </c>
+      <c r="H25" t="s">
+        <v>856</v>
+      </c>
+      <c r="I25" t="s">
+        <v>857</v>
+      </c>
+      <c r="K25" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>369</v>
       </c>
@@ -3695,8 +5554,20 @@
       <c r="C26" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>859</v>
+      </c>
+      <c r="H26" t="s">
+        <v>860</v>
+      </c>
+      <c r="I26" t="s">
+        <v>861</v>
+      </c>
+      <c r="K26" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>370</v>
       </c>
@@ -3706,8 +5577,14 @@
       <c r="C27" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>863</v>
+      </c>
+      <c r="I27" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>371</v>
       </c>
@@ -3717,8 +5594,14 @@
       <c r="C28" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>865</v>
+      </c>
+      <c r="I28" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>372</v>
       </c>
@@ -3728,8 +5611,14 @@
       <c r="C29" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>867</v>
+      </c>
+      <c r="I29" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>373</v>
       </c>
@@ -3739,105 +5628,120 @@
       <c r="C30" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>374</v>
       </c>
       <c r="B31" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>375</v>
       </c>
       <c r="B32" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>376</v>
       </c>
       <c r="B33" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>377</v>
       </c>
       <c r="B34" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>391</v>
       </c>
@@ -4057,8 +5961,16 @@
         <v>384</v>
       </c>
     </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/logic/SpaCy/training_data.xlsx
+++ b/logic/SpaCy/training_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\chatbot-1.1.3\logic\SpaCy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246FF5F2-725A-4533-A691-A784613AB4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BC4A94-128C-4142-8E4D-29FAA9967E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="6330" windowWidth="16410" windowHeight="14145" xr2:uid="{94CEDFB2-1B98-48F3-8218-CEFE20B1FBF4}"/>
+    <workbookView xWindow="28680" yWindow="-7830" windowWidth="16440" windowHeight="28320" xr2:uid="{94CEDFB2-1B98-48F3-8218-CEFE20B1FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="954">
   <si>
     <t>cls</t>
   </si>
@@ -2664,6 +2664,240 @@
   </si>
   <si>
     <t>please go ahead and repeat after what I will say</t>
+  </si>
+  <si>
+    <t>give me the weather information for tomorrow</t>
+  </si>
+  <si>
+    <t>what is tomorrows weather conditions</t>
+  </si>
+  <si>
+    <t>what is todays weather conditions</t>
+  </si>
+  <si>
+    <t>what is the weather like in Davis</t>
+  </si>
+  <si>
+    <t>whats the weather like in Fontana</t>
+  </si>
+  <si>
+    <t>what will the weather be in</t>
+  </si>
+  <si>
+    <t>I want the screen to be cleared please</t>
+  </si>
+  <si>
+    <t>I want your help</t>
+  </si>
+  <si>
+    <t>I want the time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want you to open an app  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want you to close an app  </t>
+  </si>
+  <si>
+    <t>I want you to analyze something</t>
+  </si>
+  <si>
+    <t>I want to do math</t>
+  </si>
+  <si>
+    <t>I want to thank you</t>
+  </si>
+  <si>
+    <t>I want to exit</t>
+  </si>
+  <si>
+    <t>I want you to say a joke</t>
+  </si>
+  <si>
+    <t>I want you to tell me the weather</t>
+  </si>
+  <si>
+    <t>give me the weather information for yesterday</t>
+  </si>
+  <si>
+    <t>whats tomorrows weather going to be like in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is it going to be raining today in </t>
+  </si>
+  <si>
+    <t>is it going to be sunny today in</t>
+  </si>
+  <si>
+    <t>I want to hear the weather information</t>
+  </si>
+  <si>
+    <t>go ahead and give me the weather report</t>
+  </si>
+  <si>
+    <t>weather report please</t>
+  </si>
+  <si>
+    <t>i command you to tell me what the weather will be like in</t>
+  </si>
+  <si>
+    <t>I want to play rock paper scissors</t>
+  </si>
+  <si>
+    <t>I want to say hi</t>
+  </si>
+  <si>
+    <t>I want to ask how are you doing</t>
+  </si>
+  <si>
+    <t>I want to ask you what your name is can you do that for me</t>
+  </si>
+  <si>
+    <t>I want you to tell me what your name is</t>
+  </si>
+  <si>
+    <t>tell me what my name is</t>
+  </si>
+  <si>
+    <t>I want you to tell me what my name is</t>
+  </si>
+  <si>
+    <t>I want you to tell me what windows version this is</t>
+  </si>
+  <si>
+    <t>I want to say that I am sorry</t>
+  </si>
+  <si>
+    <t>I want you to tell me what your hobbies are</t>
+  </si>
+  <si>
+    <t>tell me what your hobby is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tell me what you like to do </t>
+  </si>
+  <si>
+    <t>tell me about isaac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who is the xac guy </t>
+  </si>
+  <si>
+    <t>who is this xac guy I keep hearing about</t>
+  </si>
+  <si>
+    <t>who is this xac hellven guy I have been hearing about</t>
+  </si>
+  <si>
+    <t>I want youtube to be opened</t>
+  </si>
+  <si>
+    <t>I want chat gpt to be opened</t>
+  </si>
+  <si>
+    <t>I want to hear you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don’t want to hear you  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">im pissed  </t>
+  </si>
+  <si>
+    <t>im so fucking mad</t>
+  </si>
+  <si>
+    <t>im absolutely angry right now</t>
+  </si>
+  <si>
+    <t>im so mad you have no idea</t>
+  </si>
+  <si>
+    <t>I want you to copy this</t>
+  </si>
+  <si>
+    <t>I want you to convert hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lets convert hours </t>
+  </si>
+  <si>
+    <t>I want you to calculate compount interest</t>
+  </si>
+  <si>
+    <t>I want you to remind me about</t>
+  </si>
+  <si>
+    <t>I want you to look up information on wikipedia</t>
+  </si>
+  <si>
+    <t>please choose a random number between</t>
+  </si>
+  <si>
+    <t>I want to win the lottery</t>
+  </si>
+  <si>
+    <t>I want you to roll a dice now</t>
+  </si>
+  <si>
+    <t>I want to utilize dalle</t>
+  </si>
+  <si>
+    <t>I want to merge pdfs</t>
+  </si>
+  <si>
+    <t>I want you to check the strength of my password</t>
+  </si>
+  <si>
+    <t>is my password weak or strong</t>
+  </si>
+  <si>
+    <t>I want you to turn a png into a pdf</t>
+  </si>
+  <si>
+    <t>I need you to turn a png into a pdf</t>
+  </si>
+  <si>
+    <t>png to pdf conversion</t>
+  </si>
+  <si>
+    <t>can you start a pomo timer</t>
+  </si>
+  <si>
+    <t>can you end a pomo timer</t>
+  </si>
+  <si>
+    <t>I would love to try out your mathematics feature</t>
+  </si>
+  <si>
+    <t>it would be so awesome if you could open an app for me</t>
+  </si>
+  <si>
+    <t>lets try to analyze some text</t>
+  </si>
+  <si>
+    <t>give me your best joke</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>tell me about the news</t>
+  </si>
+  <si>
+    <t>whats on the news</t>
+  </si>
+  <si>
+    <t>anything on the news</t>
+  </si>
+  <si>
+    <t>what are the latest headlines</t>
+  </si>
+  <si>
+    <t>thank yuh</t>
+  </si>
+  <si>
+    <t>I wish to hear a joke</t>
   </si>
 </sst>
 </file>
@@ -2719,9 +2953,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB8989F1-9511-4396-A6C2-1CF7792687C0}" name="Table1" displayName="Table1" ref="A1:AP100" totalsRowShown="0">
-  <autoFilter ref="A1:AP100" xr:uid="{AB8989F1-9511-4396-A6C2-1CF7792687C0}"/>
-  <tableColumns count="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB8989F1-9511-4396-A6C2-1CF7792687C0}" name="Table1" displayName="Table1" ref="A1:AQ100" totalsRowShown="0">
+  <autoFilter ref="A1:AQ100" xr:uid="{AB8989F1-9511-4396-A6C2-1CF7792687C0}"/>
+  <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{8ABE6F0E-82B0-450D-8004-A121376D8BF2}" name="cls"/>
     <tableColumn id="2" xr3:uid="{B8038201-8AAC-4F16-AA91-706A317B2594}" name="help"/>
     <tableColumn id="3" xr3:uid="{6FBC3E0F-9AEB-429E-A141-7AE54BABEA09}" name="time"/>
@@ -2732,6 +2966,7 @@
     <tableColumn id="8" xr3:uid="{19F62C66-AB1B-45BC-9369-0F5E2EF1D629}" name="thanks"/>
     <tableColumn id="9" xr3:uid="{BE10C221-9EB7-4C27-B164-D46517FF0BBB}" name="quit"/>
     <tableColumn id="10" xr3:uid="{50FCC357-ED8D-4C84-9C26-41793C243FC3}" name="tell_joke"/>
+    <tableColumn id="44" xr3:uid="{EDA52831-911D-4578-8B80-DC7D46E374F1}" name="news"/>
     <tableColumn id="11" xr3:uid="{CFEFE155-C4A1-4E47-AA10-CCCC18FB3FEE}" name="weather"/>
     <tableColumn id="12" xr3:uid="{69BFEEC8-39FF-44AA-B9B9-F1E289E5E51F}" name="rock_paper_scissors"/>
     <tableColumn id="13" xr3:uid="{7507E41C-7136-4BF4-932A-8CBE286EC4AF}" name="greetings"/>
@@ -3086,15 +3321,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDA376-956F-4742-8649-35ECB5332B72}">
-  <dimension ref="A1:AP92"/>
+  <dimension ref="A1:AQ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3126,103 +3361,106 @@
         <v>176</v>
       </c>
       <c r="K1" t="s">
+        <v>947</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>546</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>535</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>536</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>537</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>538</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>539</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>540</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>541</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>542</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>543</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>544</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -3254,103 +3492,106 @@
         <v>171</v>
       </c>
       <c r="K2" t="s">
+        <v>948</v>
+      </c>
+      <c r="L2" t="s">
         <v>182</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>197</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>202</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>206</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>230</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>235</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>240</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>244</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>247</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>254</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>261</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>270</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>288</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>304</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>311</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>315</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>318</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>322</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>328</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>330</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>334</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>340</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>342</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>347</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>351</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>509</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>353</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -3382,100 +3623,103 @@
         <v>172</v>
       </c>
       <c r="K3" t="s">
+        <v>949</v>
+      </c>
+      <c r="L3" t="s">
         <v>183</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>198</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>203</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>207</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>211</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>215</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>223</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>15</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>16</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>241</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>245</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>248</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>255</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>262</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>271</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>289</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>305</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>312</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>316</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>319</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>323</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>329</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>331</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>335</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>341</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>343</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>348</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>352</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>354</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3507,100 +3751,103 @@
         <v>173</v>
       </c>
       <c r="K4" t="s">
+        <v>950</v>
+      </c>
+      <c r="L4" t="s">
         <v>184</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>199</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>204</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>208</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>212</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>216</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>224</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>231</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>236</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>242</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>246</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>249</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>256</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>263</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>272</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>290</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>306</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>313</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>317</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>320</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>324</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>574</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>332</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>336</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>470</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>345</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>349</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>499</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>355</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -3632,100 +3879,103 @@
         <v>174</v>
       </c>
       <c r="K5" t="s">
+        <v>951</v>
+      </c>
+      <c r="L5" t="s">
         <v>185</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>200</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>205</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>209</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>213</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>217</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>225</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>232</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>237</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>243</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>471</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>250</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>257</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>264</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>273</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>291</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>307</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>314</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>575</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>321</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>325</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>576</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>333</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>337</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>529</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>344</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>350</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>500</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3756,101 +4006,101 @@
       <c r="J6" t="s">
         <v>175</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>186</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>201</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>10</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>210</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>568</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>577</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>222</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>226</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>233</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>237</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>547</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>472</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>251</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>258</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>265</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>274</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>292</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>308</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>578</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>579</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>580</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>326</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>581</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>582</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>530</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>346</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>510</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>501</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>356</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3881,98 +4131,98 @@
       <c r="J7" t="s">
         <v>177</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>187</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>583</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>11</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>569</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>584</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>558</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>227</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>234</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>238</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>243</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>17</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>252</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>259</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>266</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>275</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>293</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>309</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>585</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>586</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>587</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>327</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>588</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>589</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>339</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>531</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>519</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>511</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>502</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>357</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -4003,101 +4253,101 @@
       <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>188</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>590</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>591</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>478</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>570</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>592</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>559</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>228</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>593</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>239</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>548</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>244</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>253</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>260</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>267</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>276</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>294</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>310</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>594</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>595</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>596</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>597</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>598</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>599</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>600</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>532</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>520</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>512</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>503</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>484</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -4128,101 +4378,101 @@
       <c r="J9" t="s">
         <v>178</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>189</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>601</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>602</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>210</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>571</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>603</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>560</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>229</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>604</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>551</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>549</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>473</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>564</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>19</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>268</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>277</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>295</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>565</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>605</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>606</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>607</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>608</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>609</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>610</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>611</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>533</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>521</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>513</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>504</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>485</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4253,101 +4503,101 @@
       <c r="J10" t="s">
         <v>179</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>190</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>612</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>613</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>479</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>572</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>614</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>561</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>615</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>616</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>552</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>550</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>474</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>617</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>618</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>269</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>278</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>296</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>566</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>619</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>620</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>621</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>622</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>623</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>624</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>625</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>534</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>522</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>514</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>505</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>486</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -4378,101 +4628,101 @@
       <c r="J11" t="s">
         <v>180</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>191</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>626</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>627</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>480</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>628</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>629</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>562</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>630</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>631</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>553</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>632</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>475</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>633</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>634</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>466</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>270</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>297</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>567</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>635</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>636</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>637</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>638</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>639</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>640</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>641</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>642</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>523</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>515</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>506</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>487</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -4500,101 +4750,101 @@
       <c r="J12" t="s">
         <v>181</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>192</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>643</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>644</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>481</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>645</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>646</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>563</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>647</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>648</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>554</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>649</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>476</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>650</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>651</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>467</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>279</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>298</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>652</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>653</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>654</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>655</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>656</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>657</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>658</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>659</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>660</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>524</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>516</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>507</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>488</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -4622,98 +4872,98 @@
       <c r="J13" t="s">
         <v>661</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>193</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>662</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>663</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>482</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>664</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>665</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>666</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>667</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>555</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>668</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>477</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>669</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>670</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>468</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>280</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>299</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>671</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>672</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>673</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>674</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>675</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>676</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>677</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>678</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>679</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>525</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>517</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>508</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
         <v>489</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -4741,98 +4991,101 @@
       <c r="J14" t="s">
         <v>680</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>194</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>681</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>682</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>683</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>684</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>685</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>686</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>687</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>688</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>556</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>689</v>
       </c>
       <c r="W14" t="s">
+        <v>913</v>
+      </c>
+      <c r="X14" t="s">
         <v>690</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>691</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>692</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>281</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>300</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>693</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>694</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>695</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>696</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>697</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>698</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>699</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>700</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>701</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>526</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>518</v>
       </c>
-      <c r="AM14" t="s">
-        <v>509</v>
-      </c>
-      <c r="AO14" t="s">
+      <c r="AN14" t="s">
+        <v>938</v>
+      </c>
+      <c r="AP14" t="s">
         <v>490</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -4860,77 +5113,95 @@
       <c r="J15" t="s">
         <v>703</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>195</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>704</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>705</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>706</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>707</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>708</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>709</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>710</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>557</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>711</v>
       </c>
       <c r="W15" t="s">
+        <v>914</v>
+      </c>
+      <c r="X15" t="s">
         <v>712</v>
       </c>
       <c r="Y15" t="s">
+        <v>918</v>
+      </c>
+      <c r="Z15" t="s">
         <v>713</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>282</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>301</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>714</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>715</v>
       </c>
       <c r="AE15" t="s">
+        <v>928</v>
+      </c>
+      <c r="AF15" t="s">
         <v>716</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>717</v>
       </c>
       <c r="AH15" t="s">
+        <v>931</v>
+      </c>
+      <c r="AI15" t="s">
         <v>718</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>719</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>720</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>527</v>
       </c>
+      <c r="AN15" t="s">
+        <v>939</v>
+      </c>
       <c r="AP15" t="s">
+        <v>941</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -4958,68 +5229,86 @@
       <c r="J16" t="s">
         <v>722</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>196</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>723</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>724</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>725</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>726</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>727</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>728</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>729</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>730</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>731</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>732</v>
       </c>
       <c r="W16" t="s">
+        <v>915</v>
+      </c>
+      <c r="X16" t="s">
         <v>733</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>734</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>283</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>302</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>735</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AD16" t="s">
+        <v>926</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>929</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>930</v>
+      </c>
+      <c r="AI16" t="s">
         <v>736</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>737</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>738</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AN16" t="s">
+        <v>940</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -5047,65 +5336,77 @@
       <c r="J17" t="s">
         <v>741</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>742</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>743</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>744</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>745</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>746</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>747</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>748</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>749</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>750</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>751</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>752</v>
       </c>
       <c r="W17" t="s">
+        <v>916</v>
+      </c>
+      <c r="X17" t="s">
         <v>753</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>754</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>284</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>303</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>755</v>
       </c>
+      <c r="AD17" t="s">
+        <v>927</v>
+      </c>
       <c r="AI17" t="s">
+        <v>932</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>756</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>757</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM17" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -5133,59 +5434,68 @@
       <c r="J18" t="s">
         <v>761</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>762</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>763</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>764</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>765</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>766</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>767</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>768</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>769</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>770</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>771</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>772</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>773</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>774</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>285</v>
       </c>
       <c r="AB18" t="s">
+        <v>921</v>
+      </c>
+      <c r="AC18" t="s">
         <v>775</v>
       </c>
       <c r="AJ18" t="s">
+        <v>933</v>
+      </c>
+      <c r="AK18" t="s">
         <v>776</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM18" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -5216,59 +5526,62 @@
       <c r="J19" t="s">
         <v>783</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>784</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>785</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>786</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>787</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>788</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>789</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>790</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>791</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>792</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>793</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>794</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>795</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>796</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>286</v>
       </c>
       <c r="AB19" t="s">
+        <v>922</v>
+      </c>
+      <c r="AC19" t="s">
         <v>797</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>798</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -5299,53 +5612,62 @@
       <c r="J20" t="s">
         <v>805</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>806</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>807</v>
       </c>
       <c r="N20" t="s">
+        <v>902</v>
+      </c>
+      <c r="O20" t="s">
         <v>808</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>809</v>
       </c>
       <c r="Q20" t="s">
+        <v>906</v>
+      </c>
+      <c r="R20" t="s">
         <v>810</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>811</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>812</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>813</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>814</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>815</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>816</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>287</v>
       </c>
       <c r="AB20" t="s">
+        <v>923</v>
+      </c>
+      <c r="AC20" t="s">
         <v>817</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>818</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -5376,32 +5698,59 @@
       <c r="J21" t="s">
         <v>824</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>825</v>
       </c>
-      <c r="N21" t="s">
+      <c r="M21" t="s">
+        <v>901</v>
+      </c>
+      <c r="O21" t="s">
         <v>826</v>
       </c>
+      <c r="P21" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>907</v>
+      </c>
+      <c r="R21" t="s">
+        <v>908</v>
+      </c>
       <c r="S21" t="s">
+        <v>909</v>
+      </c>
+      <c r="T21" t="s">
         <v>874</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>827</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="V21" t="s">
+        <v>910</v>
+      </c>
+      <c r="X21" t="s">
+        <v>917</v>
+      </c>
+      <c r="Z21" t="s">
         <v>828</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>469</v>
       </c>
       <c r="AB21" t="s">
+        <v>924</v>
+      </c>
+      <c r="AC21" t="s">
         <v>829</v>
       </c>
       <c r="AK21" t="s">
+        <v>934</v>
+      </c>
+      <c r="AL21" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>365</v>
       </c>
@@ -5432,26 +5781,35 @@
       <c r="J22" t="s">
         <v>835</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>836</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>837</v>
       </c>
-      <c r="T22" t="s">
+      <c r="P22" t="s">
+        <v>905</v>
+      </c>
+      <c r="U22" t="s">
         <v>838</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="V22" t="s">
+        <v>911</v>
+      </c>
+      <c r="Z22" t="s">
         <v>839</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AA22" t="s">
+        <v>920</v>
+      </c>
+      <c r="AC22" t="s">
         <v>875</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -5479,17 +5837,29 @@
       <c r="I23" t="s">
         <v>845</v>
       </c>
-      <c r="K23" t="s">
+      <c r="J23" t="s">
+        <v>891</v>
+      </c>
+      <c r="L23" t="s">
         <v>846</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="O23" t="s">
+        <v>903</v>
+      </c>
+      <c r="V23" t="s">
+        <v>912</v>
+      </c>
+      <c r="Z23" t="s">
         <v>847</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AC23" t="s">
+        <v>565</v>
+      </c>
+      <c r="AL23" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>367</v>
       </c>
@@ -5502,6 +5872,9 @@
       <c r="D24" t="s">
         <v>849</v>
       </c>
+      <c r="E24" t="s">
+        <v>886</v>
+      </c>
       <c r="F24" t="s">
         <v>850</v>
       </c>
@@ -5514,14 +5887,23 @@
       <c r="I24" t="s">
         <v>852</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J24" t="s">
+        <v>946</v>
+      </c>
+      <c r="L24" t="s">
         <v>853</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="Z24" t="s">
+        <v>919</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>925</v>
+      </c>
+      <c r="AL24" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>368</v>
       </c>
@@ -5534,17 +5916,29 @@
       <c r="D25" t="s">
         <v>855</v>
       </c>
+      <c r="F25" t="s">
+        <v>887</v>
+      </c>
+      <c r="G25" t="s">
+        <v>888</v>
+      </c>
       <c r="H25" t="s">
         <v>856</v>
       </c>
       <c r="I25" t="s">
         <v>857</v>
       </c>
-      <c r="K25" t="s">
+      <c r="J25" t="s">
+        <v>953</v>
+      </c>
+      <c r="L25" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL25" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>369</v>
       </c>
@@ -5557,17 +5951,23 @@
       <c r="D26" t="s">
         <v>859</v>
       </c>
+      <c r="F26" t="s">
+        <v>945</v>
+      </c>
+      <c r="G26" t="s">
+        <v>943</v>
+      </c>
       <c r="H26" t="s">
         <v>860</v>
       </c>
       <c r="I26" t="s">
         <v>861</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>370</v>
       </c>
@@ -5580,11 +5980,17 @@
       <c r="D27" t="s">
         <v>863</v>
       </c>
+      <c r="H27" t="s">
+        <v>889</v>
+      </c>
       <c r="I27" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>371</v>
       </c>
@@ -5597,11 +6003,17 @@
       <c r="D28" t="s">
         <v>865</v>
       </c>
+      <c r="H28" t="s">
+        <v>952</v>
+      </c>
       <c r="I28" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>372</v>
       </c>
@@ -5617,8 +6029,11 @@
       <c r="I29" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>373</v>
       </c>
@@ -5631,19 +6046,31 @@
       <c r="D30" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>890</v>
+      </c>
+      <c r="L30" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>374</v>
       </c>
       <c r="B31" t="s">
         <v>440</v>
       </c>
+      <c r="C31" t="s">
+        <v>884</v>
+      </c>
       <c r="D31" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>375</v>
       </c>
@@ -5653,8 +6080,11 @@
       <c r="D32" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>376</v>
       </c>
@@ -5664,8 +6094,11 @@
       <c r="D33" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>377</v>
       </c>
@@ -5675,73 +6108,106 @@
       <c r="D34" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>883</v>
+      </c>
+      <c r="D35" t="s">
+        <v>885</v>
+      </c>
+      <c r="L35" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>944</v>
+      </c>
+      <c r="L36" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>391</v>
       </c>
@@ -5964,6 +6430,11 @@
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>882</v>
       </c>
     </row>
   </sheetData>

--- a/logic/SpaCy/training_data.xlsx
+++ b/logic/SpaCy/training_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\chatbot-1.1.3\logic\SpaCy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BC4A94-128C-4142-8E4D-29FAA9967E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446CF7DB-9619-42FB-9EE6-1AAB00A6D7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7830" windowWidth="16440" windowHeight="28320" xr2:uid="{94CEDFB2-1B98-48F3-8218-CEFE20B1FBF4}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{94CEDFB2-1B98-48F3-8218-CEFE20B1FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="1000">
   <si>
     <t>cls</t>
   </si>
@@ -2898,6 +2898,144 @@
   </si>
   <si>
     <t>I wish to hear a joke</t>
+  </si>
+  <si>
+    <t>would you mind beginning a pomoo</t>
+  </si>
+  <si>
+    <t>would you mind beginning a pomo timer</t>
+  </si>
+  <si>
+    <t>would you mind ending a pomo</t>
+  </si>
+  <si>
+    <t>would you mind ending a pomo timer</t>
+  </si>
+  <si>
+    <t>can you check if is a strong or weak password</t>
+  </si>
+  <si>
+    <t>could you assist me in determining if is a strong password or not</t>
+  </si>
+  <si>
+    <t>is my password strong enough</t>
+  </si>
+  <si>
+    <t>how strong is this password</t>
+  </si>
+  <si>
+    <t>can you evaluate the strength of my password</t>
+  </si>
+  <si>
+    <t>Is the password 'MyStr0ngP@ssw0rd' secure</t>
+  </si>
+  <si>
+    <t>check if 'Qwerty123!' is a strong password or not</t>
+  </si>
+  <si>
+    <t>my password is too weak</t>
+  </si>
+  <si>
+    <t>this password is not secure enough</t>
+  </si>
+  <si>
+    <t>im not sure if my password is strong or not</t>
+  </si>
+  <si>
+    <t>can you rate the strength of my password</t>
+  </si>
+  <si>
+    <t>how secure is the password  'Abc123!@#</t>
+  </si>
+  <si>
+    <t>I need to check if 'P@aaw0rd123' is a strong enough password</t>
+  </si>
+  <si>
+    <t>Please evaluate the robustness of this password: 'Qwerty@123'</t>
+  </si>
+  <si>
+    <t>Is my current password 'MyPassword!' considered weak or strong</t>
+  </si>
+  <si>
+    <t>im not confident about the security level of my password can you analyze it</t>
+  </si>
+  <si>
+    <t>would you mind checking the complexity of this password for me</t>
+  </si>
+  <si>
+    <t>im insure about the strength of this password: 'Letmein123'</t>
+  </si>
+  <si>
+    <t>can you evaluate the security of this password im using</t>
+  </si>
+  <si>
+    <t>I want to make sure my password is secure or not</t>
+  </si>
+  <si>
+    <t>I need to know if this password meets the strength requirements</t>
+  </si>
+  <si>
+    <t>can you verifty the robustness of the password 'Passw0rd#'</t>
+  </si>
+  <si>
+    <t>im concerned about the security of my current password can you assess it</t>
+  </si>
+  <si>
+    <t>would you assist me in determining if 'Qwerty123!' is a strong password</t>
+  </si>
+  <si>
+    <t>I recently changed my password. Could you check its strength for me</t>
+  </si>
+  <si>
+    <t>Please evaluate the security level of this password: 'Str0ngP@ssw0rd'</t>
+  </si>
+  <si>
+    <t>I want to make sure my passwors is strong could you assist me in determining that</t>
+  </si>
+  <si>
+    <t>can you help me analyze the complexity of this password: 'P@ssword123!'</t>
+  </si>
+  <si>
+    <t>check if my password TEST33980 is strong</t>
+  </si>
+  <si>
+    <t>could you assist me in determining if TEST33980 is a strong password or not</t>
+  </si>
+  <si>
+    <t>check my password strength for TEST33980</t>
+  </si>
+  <si>
+    <t>check if my password SKIBIDITOILER999 is strong</t>
+  </si>
+  <si>
+    <t>could you assist me in determining if TESTING! Is a strong password or not</t>
+  </si>
+  <si>
+    <t>verify my password bababa11</t>
+  </si>
+  <si>
+    <t>password mypassword123</t>
+  </si>
+  <si>
+    <t>make 3 lotto tickets</t>
+  </si>
+  <si>
+    <t>make lotto tickets for me</t>
+  </si>
+  <si>
+    <t>generate 2 lottery tickets for me</t>
+  </si>
+  <si>
+    <t>generate 3 lottery tickets</t>
+  </si>
+  <si>
+    <t>generate 4 lottery tickets for me</t>
+  </si>
+  <si>
+    <t>generate 5 lottery tickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generate lottery tickets </t>
   </si>
 </sst>
 </file>
@@ -3323,11 +3461,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDA376-956F-4742-8649-35ECB5332B72}">
   <dimension ref="A1:AQ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="39" max="39" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5304,11 +5445,14 @@
       <c r="AN16" t="s">
         <v>940</v>
       </c>
+      <c r="AP16" t="s">
+        <v>954</v>
+      </c>
       <c r="AQ16" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -5405,8 +5549,14 @@
       <c r="AM17" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AP17" t="s">
+        <v>955</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -5482,6 +5632,9 @@
       <c r="AC18" t="s">
         <v>775</v>
       </c>
+      <c r="AI18" t="s">
+        <v>993</v>
+      </c>
       <c r="AJ18" t="s">
         <v>933</v>
       </c>
@@ -5494,8 +5647,11 @@
       <c r="AM18" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AQ18" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -5574,14 +5730,20 @@
       <c r="AC19" t="s">
         <v>797</v>
       </c>
+      <c r="AI19" t="s">
+        <v>994</v>
+      </c>
       <c r="AK19" t="s">
         <v>798</v>
       </c>
       <c r="AL19" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM19" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -5660,14 +5822,20 @@
       <c r="AC20" t="s">
         <v>817</v>
       </c>
+      <c r="AI20" t="s">
+        <v>995</v>
+      </c>
       <c r="AK20" t="s">
         <v>818</v>
       </c>
       <c r="AL20" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM20" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -5743,14 +5911,20 @@
       <c r="AC21" t="s">
         <v>829</v>
       </c>
+      <c r="AI21" t="s">
+        <v>996</v>
+      </c>
       <c r="AK21" t="s">
         <v>934</v>
       </c>
       <c r="AL21" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM21" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>365</v>
       </c>
@@ -5805,11 +5979,17 @@
       <c r="AC22" t="s">
         <v>875</v>
       </c>
+      <c r="AI22" t="s">
+        <v>997</v>
+      </c>
       <c r="AL22" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM22" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
@@ -5855,11 +6035,17 @@
       <c r="AC23" t="s">
         <v>565</v>
       </c>
+      <c r="AI23" t="s">
+        <v>998</v>
+      </c>
       <c r="AL23" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM23" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>367</v>
       </c>
@@ -5899,11 +6085,17 @@
       <c r="AC24" t="s">
         <v>925</v>
       </c>
+      <c r="AI24" t="s">
+        <v>999</v>
+      </c>
       <c r="AL24" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM24" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>368</v>
       </c>
@@ -5937,8 +6129,11 @@
       <c r="AL25" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM25" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>369</v>
       </c>
@@ -5966,8 +6161,11 @@
       <c r="L26" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM26" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>370</v>
       </c>
@@ -5989,8 +6187,11 @@
       <c r="L27" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM27" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>371</v>
       </c>
@@ -6012,8 +6213,11 @@
       <c r="L28" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM28" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>372</v>
       </c>
@@ -6032,8 +6236,11 @@
       <c r="L29" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM29" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>373</v>
       </c>
@@ -6052,8 +6259,11 @@
       <c r="L30" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM30" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>374</v>
       </c>
@@ -6069,8 +6279,11 @@
       <c r="L31" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM31" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>375</v>
       </c>
@@ -6083,8 +6296,11 @@
       <c r="L32" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM32" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>376</v>
       </c>
@@ -6097,8 +6313,11 @@
       <c r="L33" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM33" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>377</v>
       </c>
@@ -6111,8 +6330,11 @@
       <c r="L34" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM34" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>378</v>
       </c>
@@ -6125,8 +6347,11 @@
       <c r="L35" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM35" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>379</v>
       </c>
@@ -6136,158 +6361,212 @@
       <c r="L36" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM36" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>380</v>
       </c>
       <c r="L37" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM37" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>381</v>
       </c>
       <c r="L38" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM38" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>382</v>
       </c>
       <c r="L39" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM39" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>383</v>
       </c>
       <c r="L40" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM40" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>384</v>
       </c>
       <c r="L41" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM41" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM42" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM43" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM44" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM45" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM46" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="AM47" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AM48" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AM49" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AM50" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AM51" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AM52" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AM53" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>407</v>
       </c>

--- a/logic/SpaCy/training_data.xlsx
+++ b/logic/SpaCy/training_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\chatbot-1.1.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\chatbot-1.1.7\logic\SpaCy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE38D3FC-35A8-4C03-B790-6CE118030F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB100C6-6895-47B0-B907-4EE0DD23F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF2410FF-7D8C-47DD-9664-B760251A13FA}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BF2410FF-7D8C-47DD-9664-B760251A13FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1038">
   <si>
     <t>cls</t>
   </si>
@@ -3126,6 +3126,30 @@
   </si>
   <si>
     <t>check api keys</t>
+  </si>
+  <si>
+    <t>hello whats your name</t>
+  </si>
+  <si>
+    <t>hey whats your name</t>
+  </si>
+  <si>
+    <t>Cypher</t>
+  </si>
+  <si>
+    <t>Lets create a cypher</t>
+  </si>
+  <si>
+    <t>let us create a cypher</t>
+  </si>
+  <si>
+    <t>cypher</t>
+  </si>
+  <si>
+    <t>cipher</t>
+  </si>
+  <si>
+    <t>I want to cipher something</t>
   </si>
 </sst>
 </file>
@@ -3181,9 +3205,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{745DE268-A725-4159-A2D1-15CC4DE1786E}" name="Table1" displayName="Table1" ref="A1:AR100" totalsRowShown="0">
-  <autoFilter ref="A1:AR100" xr:uid="{745DE268-A725-4159-A2D1-15CC4DE1786E}"/>
-  <tableColumns count="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{745DE268-A725-4159-A2D1-15CC4DE1786E}" name="Table1" displayName="Table1" ref="A1:AS100" totalsRowShown="0">
+  <autoFilter ref="A1:AS100" xr:uid="{745DE268-A725-4159-A2D1-15CC4DE1786E}"/>
+  <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{64514F79-4C71-4632-A941-BE36CBF0C5CC}" name="cls"/>
     <tableColumn id="2" xr3:uid="{4A684479-1901-4202-8826-A37DBB938DEE}" name="help"/>
     <tableColumn id="3" xr3:uid="{A0D8A05E-F2EC-4DCE-81E3-CC9E9E4B0F8C}" name="time"/>
@@ -3228,6 +3252,7 @@
     <tableColumn id="42" xr3:uid="{DD29E00A-F77F-4168-97A1-6E0D9D4A863D}" name="start_pomo"/>
     <tableColumn id="43" xr3:uid="{2D00A8F7-AB41-4F64-9AD7-9521C0F5F484}" name="stop_pomo"/>
     <tableColumn id="44" xr3:uid="{35061E03-85E0-4187-A8A6-1C2E6FDE4C8C}" name="checkapikeys"/>
+    <tableColumn id="45" xr3:uid="{302E07BD-FA02-4467-AC5E-C26D1CC02E3F}" name="Cypher"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3550,10 +3575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EDE795-CCBF-4AD7-B9A5-DA56CD29A77A}">
-  <dimension ref="A1:AR94"/>
+  <dimension ref="A1:AS94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR6" sqref="AR6"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,7 +3587,7 @@
     <col min="10" max="44" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3695,8 +3720,11 @@
       <c r="AR1" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3829,8 +3857,11 @@
       <c r="AR2" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -3960,8 +3991,11 @@
       <c r="AR3" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -4091,8 +4125,11 @@
       <c r="AR4" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -4222,8 +4259,11 @@
       <c r="AR5" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4350,8 +4390,11 @@
       <c r="AQ6" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS6" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -4476,7 +4519,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>287</v>
       </c>
@@ -4604,7 +4647,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>328</v>
       </c>
@@ -4732,7 +4775,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4860,7 +4903,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>409</v>
       </c>
@@ -4988,7 +5031,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>449</v>
       </c>
@@ -5110,7 +5153,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>489</v>
       </c>
@@ -5229,7 +5272,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>527</v>
       </c>
@@ -5351,7 +5394,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>567</v>
       </c>
@@ -5467,7 +5510,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>605</v>
       </c>
@@ -6154,6 +6197,9 @@
       <c r="O23" t="s">
         <v>825</v>
       </c>
+      <c r="P23" t="s">
+        <v>1030</v>
+      </c>
       <c r="V23" t="s">
         <v>826</v>
       </c>
@@ -6210,6 +6256,9 @@
       <c r="L24" t="s">
         <v>842</v>
       </c>
+      <c r="P24" t="s">
+        <v>140</v>
+      </c>
       <c r="Z24" t="s">
         <v>843</v>
       </c>
@@ -6259,6 +6308,9 @@
       </c>
       <c r="L25" t="s">
         <v>858</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1031</v>
       </c>
       <c r="Z25" t="s">
         <v>859</v>

--- a/logic/SpaCy/training_data.xlsx
+++ b/logic/SpaCy/training_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\chatbot-1.1.7\logic\SpaCy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\chatbot-1.1.7 - Copy\logic\SpaCy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB100C6-6895-47B0-B907-4EE0DD23F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE64066F-9B47-4651-8844-58A79DE129A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BF2410FF-7D8C-47DD-9664-B760251A13FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF2410FF-7D8C-47DD-9664-B760251A13FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1035">
   <si>
     <t>cls</t>
   </si>
@@ -221,9 +221,6 @@
     <t>im feeling bad today</t>
   </si>
   <si>
-    <t>who do you like to do in your free time</t>
-  </si>
-  <si>
     <t>who is xac hellven</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>I feel bad</t>
   </si>
   <si>
-    <t>do you have any hobbies</t>
-  </si>
-  <si>
     <t xml:space="preserve">who is xac  </t>
   </si>
   <si>
@@ -476,9 +470,6 @@
     <t>I am feeling bad</t>
   </si>
   <si>
-    <t>tell me about your hobbies</t>
-  </si>
-  <si>
     <t>what do you know about xac hellven</t>
   </si>
   <si>
@@ -602,9 +593,6 @@
     <t>I am feeling horrible</t>
   </si>
   <si>
-    <t>what are your favorite activities?</t>
-  </si>
-  <si>
     <t>xac</t>
   </si>
   <si>
@@ -716,9 +704,6 @@
     <t>I am feeling fantastic</t>
   </si>
   <si>
-    <t>whats your favorite activities</t>
-  </si>
-  <si>
     <t>hellven</t>
   </si>
   <si>
@@ -1082,9 +1067,6 @@
     <t>I feel terrible</t>
   </si>
   <si>
-    <t>whats your hobbies</t>
-  </si>
-  <si>
     <t>what is xac</t>
   </si>
   <si>
@@ -1202,9 +1184,6 @@
     <t>I feel so bad about that</t>
   </si>
   <si>
-    <t>what do you like to do in your free time</t>
-  </si>
-  <si>
     <t>what is hellven</t>
   </si>
   <si>
@@ -1325,9 +1304,6 @@
     <t>dude im feeling horrible</t>
   </si>
   <si>
-    <t>okay so whats your current hobby</t>
-  </si>
-  <si>
     <t>what is xac hellven</t>
   </si>
   <si>
@@ -1442,9 +1418,6 @@
     <t>I feel like shit</t>
   </si>
   <si>
-    <t>alright what is your hobby</t>
-  </si>
-  <si>
     <t>tell me about xac</t>
   </si>
   <si>
@@ -1556,9 +1529,6 @@
     <t>im feeling like shit</t>
   </si>
   <si>
-    <t>so whats your hobbies</t>
-  </si>
-  <si>
     <t>tell me about xac hellven</t>
   </si>
   <si>
@@ -1676,9 +1646,6 @@
     <t>I feel like a total dick</t>
   </si>
   <si>
-    <t>alrighty your hobbies are</t>
-  </si>
-  <si>
     <t>tell me about isaac</t>
   </si>
   <si>
@@ -1793,9 +1760,6 @@
     <t>im fucking horrible</t>
   </si>
   <si>
-    <t>what do you do for fun</t>
-  </si>
-  <si>
     <t xml:space="preserve">who is the xac guy </t>
   </si>
   <si>
@@ -1910,9 +1874,6 @@
     <t>im feeling down</t>
   </si>
   <si>
-    <t>do you have any interests</t>
-  </si>
-  <si>
     <t>who is this xac guy I keep hearing about</t>
   </si>
   <si>
@@ -2021,9 +1982,6 @@
     <t>im not doing so well</t>
   </si>
   <si>
-    <t>what are your hobbies bro</t>
-  </si>
-  <si>
     <t>who is this xac hellven guy I have been hearing about</t>
   </si>
   <si>
@@ -2123,9 +2081,6 @@
     <t>im feeling sad</t>
   </si>
   <si>
-    <t>are there any activities that you enjoy</t>
-  </si>
-  <si>
     <t>access the youtube platform</t>
   </si>
   <si>
@@ -2219,9 +2174,6 @@
     <t>im feeling low</t>
   </si>
   <si>
-    <t>any hobbies you have that youre passionate about</t>
-  </si>
-  <si>
     <t>direct me to youtube please</t>
   </si>
   <si>
@@ -2309,9 +2261,6 @@
     <t>im not feeling great</t>
   </si>
   <si>
-    <t>do you like to do anything in your freetime</t>
-  </si>
-  <si>
     <t>take me to the youtube site</t>
   </si>
   <si>
@@ -2390,9 +2339,6 @@
     <t>im feeling abit blue</t>
   </si>
   <si>
-    <t>I want you to tell me what your hobbies are</t>
-  </si>
-  <si>
     <t>I want youtube to be opened</t>
   </si>
   <si>
@@ -2459,9 +2405,6 @@
     <t>im feeling upset</t>
   </si>
   <si>
-    <t>tell me what your hobby is</t>
-  </si>
-  <si>
     <t>switch on text to audio</t>
   </si>
   <si>
@@ -2516,9 +2459,6 @@
     <t>I want to ask how are you doing</t>
   </si>
   <si>
-    <t xml:space="preserve">tell me what you like to do </t>
-  </si>
-  <si>
     <t>turn on the voice reader</t>
   </si>
   <si>
@@ -3150,6 +3090,57 @@
   </si>
   <si>
     <t>I want to cipher something</t>
+  </si>
+  <si>
+    <t>hobbies</t>
+  </si>
+  <si>
+    <t>any hobbies</t>
+  </si>
+  <si>
+    <t>can you assist me with</t>
+  </si>
+  <si>
+    <t>how can i</t>
+  </si>
+  <si>
+    <t>what do I need to do</t>
+  </si>
+  <si>
+    <t>help me out</t>
+  </si>
+  <si>
+    <t>can you lend a hand</t>
+  </si>
+  <si>
+    <t>need some guidance on</t>
+  </si>
+  <si>
+    <t>got any advice on</t>
+  </si>
+  <si>
+    <t>can you walk me through</t>
+  </si>
+  <si>
+    <t>im having trouble with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can you help  </t>
+  </si>
+  <si>
+    <t>Can you encrypt this text</t>
+  </si>
+  <si>
+    <t>I need a cipher algorith for</t>
+  </si>
+  <si>
+    <t>how can I create a secure encryption method</t>
+  </si>
+  <si>
+    <t>help me generate a secret code</t>
+  </si>
+  <si>
+    <t>how do I generate a secure encryption key</t>
   </si>
 </sst>
 </file>
@@ -3577,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EDE795-CCBF-4AD7-B9A5-DA56CD29A77A}">
   <dimension ref="A1:AS94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,10 +3709,10 @@
         <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="AS1" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
@@ -3789,478 +3780,475 @@
         <v>60</v>
       </c>
       <c r="V2" t="s">
+        <v>303</v>
+      </c>
+      <c r="W2" t="s">
         <v>61</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>62</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>74</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>75</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>77</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>78</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>79</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>80</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>81</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>82</v>
-      </c>
       <c r="AR2" t="s">
-        <v>1026</v>
+        <v>1006</v>
       </c>
       <c r="AS2" t="s">
-        <v>1033</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>85</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>86</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>88</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>89</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>90</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>91</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>92</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>93</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>94</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>95</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>96</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>97</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>99</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>100</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>101</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>102</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="W3" t="s">
         <v>103</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>104</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>105</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>106</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>107</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>108</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>109</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>110</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>111</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>112</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>113</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>114</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>115</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>116</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>117</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>118</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>119</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
         <v>120</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AP3" t="s">
         <v>121</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AQ3" t="s">
         <v>122</v>
       </c>
-      <c r="AP3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>124</v>
-      </c>
       <c r="AR3" t="s">
-        <v>1027</v>
+        <v>1007</v>
       </c>
       <c r="AS3" t="s">
-        <v>1034</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>126</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>127</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>128</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>129</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>130</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>131</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>132</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>133</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>134</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>135</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>136</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>137</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>138</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>139</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>140</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>141</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>142</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>143</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="W4" t="s">
         <v>144</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>145</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
         <v>146</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>147</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>148</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>149</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>150</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>151</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AF4" t="s">
         <v>153</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AG4" t="s">
         <v>154</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
         <v>155</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AI4" t="s">
         <v>156</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
         <v>157</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AK4" t="s">
         <v>158</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>159</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>160</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>161</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AP4" t="s">
         <v>162</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AQ4" t="s">
         <v>163</v>
       </c>
-      <c r="AN4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>166</v>
-      </c>
       <c r="AR4" t="s">
-        <v>1028</v>
+        <v>1008</v>
       </c>
       <c r="AS4" t="s">
-        <v>1035</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>168</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>169</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>170</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>171</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>172</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>173</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>174</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>175</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>176</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>177</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>178</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>179</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>180</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>181</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>182</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>183</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U5" t="s">
         <v>184</v>
       </c>
-      <c r="S5" t="s">
+      <c r="W5" t="s">
         <v>185</v>
       </c>
-      <c r="T5" t="s">
+      <c r="X5" t="s">
         <v>186</v>
       </c>
-      <c r="U5" t="s">
+      <c r="Y5" t="s">
         <v>187</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Z5" t="s">
         <v>188</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AA5" t="s">
         <v>189</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AB5" t="s">
         <v>190</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AC5" t="s">
         <v>191</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AD5" t="s">
         <v>192</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AE5" t="s">
         <v>193</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>194</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>195</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AH5" t="s">
         <v>196</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AI5" t="s">
         <v>197</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AJ5" t="s">
         <v>198</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AK5" t="s">
         <v>199</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>200</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AM5" t="s">
         <v>201</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AN5" t="s">
         <v>202</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AP5" t="s">
         <v>203</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AQ5" t="s">
         <v>204</v>
       </c>
-      <c r="AM5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>208</v>
-      </c>
       <c r="AR5" t="s">
-        <v>1029</v>
+        <v>1009</v>
       </c>
       <c r="AS5" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -4268,511 +4256,508 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" t="s">
         <v>213</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>214</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>215</v>
-      </c>
-      <c r="J6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K6" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" t="s">
-        <v>218</v>
-      </c>
-      <c r="M6" t="s">
-        <v>219</v>
       </c>
       <c r="N6" t="s">
         <v>13</v>
       </c>
       <c r="O6" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>218</v>
+      </c>
+      <c r="R6" t="s">
+        <v>219</v>
+      </c>
+      <c r="S6" t="s">
         <v>220</v>
       </c>
-      <c r="P6" t="s">
+      <c r="T6" t="s">
         <v>221</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
+        <v>184</v>
+      </c>
+      <c r="W6" t="s">
         <v>222</v>
       </c>
-      <c r="R6" t="s">
+      <c r="X6" t="s">
         <v>223</v>
       </c>
-      <c r="S6" t="s">
+      <c r="Y6" t="s">
         <v>224</v>
       </c>
-      <c r="T6" t="s">
+      <c r="Z6" t="s">
         <v>225</v>
       </c>
-      <c r="U6" t="s">
-        <v>187</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="AA6" t="s">
         <v>226</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AB6" t="s">
         <v>227</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AC6" t="s">
         <v>228</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AD6" t="s">
         <v>229</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AF6" t="s">
         <v>231</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AG6" t="s">
         <v>232</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AH6" t="s">
         <v>233</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AI6" t="s">
         <v>234</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AJ6" t="s">
         <v>235</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AK6" t="s">
         <v>236</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AL6" t="s">
         <v>237</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AM6" t="s">
         <v>238</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AN6" t="s">
         <v>239</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AP6" t="s">
         <v>240</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AQ6" t="s">
         <v>241</v>
       </c>
-      <c r="AL6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>246</v>
-      </c>
       <c r="AS6" t="s">
-        <v>1037</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" t="s">
         <v>247</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7" t="s">
         <v>248</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
         <v>249</v>
       </c>
-      <c r="D7" t="s">
+      <c r="I7" t="s">
         <v>250</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
         <v>251</v>
       </c>
-      <c r="F7" t="s">
+      <c r="K7" t="s">
         <v>252</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>253</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N7" t="s">
         <v>254</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>255</v>
       </c>
-      <c r="J7" t="s">
+      <c r="P7" t="s">
         <v>256</v>
       </c>
-      <c r="K7" t="s">
+      <c r="Q7" t="s">
         <v>257</v>
       </c>
-      <c r="L7" t="s">
+      <c r="R7" t="s">
         <v>258</v>
       </c>
-      <c r="N7" t="s">
+      <c r="S7" t="s">
         <v>259</v>
       </c>
-      <c r="O7" t="s">
+      <c r="T7" t="s">
         <v>260</v>
       </c>
-      <c r="P7" t="s">
+      <c r="U7" t="s">
         <v>261</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="W7" t="s">
         <v>262</v>
       </c>
-      <c r="R7" t="s">
+      <c r="X7" t="s">
         <v>263</v>
       </c>
-      <c r="S7" t="s">
+      <c r="Y7" t="s">
         <v>264</v>
       </c>
-      <c r="T7" t="s">
+      <c r="Z7" t="s">
         <v>265</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AA7" t="s">
         <v>266</v>
       </c>
-      <c r="V7" t="s">
-        <v>188</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="AB7" t="s">
         <v>267</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AC7" t="s">
         <v>268</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AD7" t="s">
         <v>269</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AE7" t="s">
         <v>270</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AF7" t="s">
         <v>271</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AG7" t="s">
         <v>272</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AH7" t="s">
         <v>273</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AI7" t="s">
         <v>274</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AJ7" t="s">
         <v>275</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AK7" t="s">
         <v>276</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AL7" t="s">
         <v>277</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AM7" t="s">
         <v>278</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AN7" t="s">
         <v>279</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AP7" t="s">
         <v>280</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AQ7" t="s">
         <v>281</v>
       </c>
-      <c r="AL7" t="s">
-        <v>282</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>283</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>284</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>286</v>
+      <c r="AS7" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" t="s">
         <v>287</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
         <v>288</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
         <v>289</v>
       </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
         <v>290</v>
       </c>
-      <c r="E8" t="s">
+      <c r="J8" t="s">
         <v>291</v>
       </c>
-      <c r="F8" t="s">
+      <c r="K8" t="s">
         <v>292</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
         <v>293</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>294</v>
       </c>
-      <c r="I8" t="s">
+      <c r="N8" t="s">
         <v>295</v>
       </c>
-      <c r="J8" t="s">
+      <c r="O8" t="s">
         <v>296</v>
       </c>
-      <c r="K8" t="s">
+      <c r="P8" t="s">
         <v>297</v>
       </c>
-      <c r="L8" t="s">
+      <c r="Q8" t="s">
         <v>298</v>
       </c>
-      <c r="M8" t="s">
+      <c r="R8" t="s">
         <v>299</v>
       </c>
-      <c r="N8" t="s">
+      <c r="S8" t="s">
         <v>300</v>
       </c>
-      <c r="O8" t="s">
+      <c r="T8" t="s">
         <v>301</v>
       </c>
-      <c r="P8" t="s">
+      <c r="U8" t="s">
         <v>302</v>
       </c>
-      <c r="Q8" t="s">
-        <v>303</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="W8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" t="s">
         <v>304</v>
       </c>
-      <c r="S8" t="s">
+      <c r="Y8" t="s">
         <v>305</v>
       </c>
-      <c r="T8" t="s">
+      <c r="Z8" t="s">
         <v>306</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AA8" t="s">
         <v>307</v>
       </c>
-      <c r="V8" t="s">
+      <c r="AB8" t="s">
         <v>308</v>
       </c>
-      <c r="W8" t="s">
-        <v>62</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="AC8" t="s">
         <v>309</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AD8" t="s">
         <v>310</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AE8" t="s">
         <v>311</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AF8" t="s">
         <v>312</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AG8" t="s">
         <v>313</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AH8" t="s">
         <v>314</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AI8" t="s">
         <v>315</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AJ8" t="s">
         <v>316</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AK8" t="s">
         <v>317</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AL8" t="s">
         <v>318</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AM8" t="s">
         <v>319</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AN8" t="s">
         <v>320</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AP8" t="s">
         <v>321</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AQ8" t="s">
         <v>322</v>
       </c>
-      <c r="AL8" t="s">
-        <v>323</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>324</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>326</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>327</v>
+      <c r="AS8" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" t="s">
         <v>328</v>
       </c>
-      <c r="B9" t="s">
+      <c r="G9" t="s">
         <v>329</v>
       </c>
-      <c r="C9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>331</v>
       </c>
-      <c r="E9" t="s">
+      <c r="J9" t="s">
         <v>332</v>
       </c>
-      <c r="F9" t="s">
+      <c r="K9" t="s">
         <v>333</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>334</v>
       </c>
-      <c r="H9" t="s">
+      <c r="M9" t="s">
         <v>335</v>
       </c>
-      <c r="I9" t="s">
+      <c r="N9" t="s">
         <v>336</v>
       </c>
-      <c r="J9" t="s">
+      <c r="O9" t="s">
+        <v>216</v>
+      </c>
+      <c r="P9" t="s">
         <v>337</v>
       </c>
-      <c r="K9" t="s">
+      <c r="Q9" t="s">
         <v>338</v>
       </c>
-      <c r="L9" t="s">
+      <c r="R9" t="s">
         <v>339</v>
       </c>
-      <c r="M9" t="s">
+      <c r="S9" t="s">
         <v>340</v>
       </c>
-      <c r="N9" t="s">
+      <c r="T9" t="s">
         <v>341</v>
       </c>
-      <c r="O9" t="s">
-        <v>220</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="U9" t="s">
         <v>342</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="W9" t="s">
         <v>343</v>
       </c>
-      <c r="R9" t="s">
+      <c r="X9" t="s">
         <v>344</v>
-      </c>
-      <c r="S9" t="s">
-        <v>345</v>
-      </c>
-      <c r="T9" t="s">
-        <v>346</v>
-      </c>
-      <c r="U9" t="s">
-        <v>347</v>
-      </c>
-      <c r="V9" t="s">
-        <v>348</v>
-      </c>
-      <c r="W9" t="s">
-        <v>349</v>
-      </c>
-      <c r="X9" t="s">
-        <v>350</v>
       </c>
       <c r="Y9" t="s">
         <v>24</v>
       </c>
       <c r="Z9" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF9" t="s">
         <v>351</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AG9" t="s">
         <v>352</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AH9" t="s">
         <v>353</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AI9" t="s">
         <v>354</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AJ9" t="s">
         <v>355</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AK9" t="s">
         <v>356</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AL9" t="s">
         <v>357</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AM9" t="s">
         <v>358</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AN9" t="s">
         <v>359</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AP9" t="s">
         <v>360</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AQ9" t="s">
         <v>361</v>
       </c>
-      <c r="AK9" t="s">
-        <v>362</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>363</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>364</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>365</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>366</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>367</v>
+      <c r="AS9" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -4780,2179 +4765,2173 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" t="s">
+        <v>367</v>
+      </c>
+      <c r="H10" t="s">
         <v>368</v>
       </c>
-      <c r="C10" t="s">
+      <c r="I10" t="s">
         <v>369</v>
       </c>
-      <c r="D10" t="s">
+      <c r="J10" t="s">
         <v>370</v>
       </c>
-      <c r="E10" t="s">
+      <c r="K10" t="s">
         <v>371</v>
       </c>
-      <c r="F10" t="s">
+      <c r="L10" t="s">
         <v>372</v>
       </c>
-      <c r="G10" t="s">
+      <c r="M10" t="s">
         <v>373</v>
       </c>
-      <c r="H10" t="s">
+      <c r="N10" t="s">
         <v>374</v>
       </c>
-      <c r="I10" t="s">
+      <c r="O10" t="s">
         <v>375</v>
       </c>
-      <c r="J10" t="s">
+      <c r="P10" t="s">
         <v>376</v>
       </c>
-      <c r="K10" t="s">
+      <c r="Q10" t="s">
         <v>377</v>
       </c>
-      <c r="L10" t="s">
+      <c r="R10" t="s">
         <v>378</v>
       </c>
-      <c r="M10" t="s">
+      <c r="S10" t="s">
         <v>379</v>
       </c>
-      <c r="N10" t="s">
+      <c r="T10" t="s">
         <v>380</v>
       </c>
-      <c r="O10" t="s">
+      <c r="U10" t="s">
         <v>381</v>
       </c>
-      <c r="P10" t="s">
+      <c r="W10" t="s">
         <v>382</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="X10" t="s">
         <v>383</v>
       </c>
-      <c r="R10" t="s">
+      <c r="Y10" t="s">
         <v>384</v>
       </c>
-      <c r="S10" t="s">
+      <c r="Z10" t="s">
         <v>385</v>
       </c>
-      <c r="T10" t="s">
+      <c r="AA10" t="s">
         <v>386</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AB10" t="s">
         <v>387</v>
       </c>
-      <c r="V10" t="s">
+      <c r="AC10" t="s">
         <v>388</v>
       </c>
-      <c r="W10" t="s">
+      <c r="AD10" t="s">
         <v>389</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AE10" t="s">
         <v>390</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AF10" t="s">
         <v>391</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AG10" t="s">
         <v>392</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AH10" t="s">
         <v>393</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AI10" t="s">
         <v>394</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AJ10" t="s">
         <v>395</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AK10" t="s">
         <v>396</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AL10" t="s">
         <v>397</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AM10" t="s">
         <v>398</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AN10" t="s">
         <v>399</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AP10" t="s">
         <v>400</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AQ10" t="s">
         <v>401</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>402</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>403</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>404</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>405</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>406</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>407</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>408</v>
+      <c r="AS10" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F11" t="s">
+        <v>407</v>
+      </c>
+      <c r="G11" t="s">
+        <v>408</v>
+      </c>
+      <c r="H11" t="s">
         <v>409</v>
       </c>
-      <c r="B11" t="s">
+      <c r="I11" t="s">
         <v>410</v>
       </c>
-      <c r="C11" t="s">
+      <c r="J11" t="s">
         <v>411</v>
       </c>
-      <c r="D11" t="s">
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s">
         <v>412</v>
       </c>
-      <c r="E11" t="s">
+      <c r="M11" t="s">
         <v>413</v>
       </c>
-      <c r="F11" t="s">
+      <c r="N11" t="s">
         <v>414</v>
       </c>
-      <c r="G11" t="s">
+      <c r="O11" t="s">
         <v>415</v>
       </c>
-      <c r="H11" t="s">
+      <c r="P11" t="s">
         <v>416</v>
       </c>
-      <c r="I11" t="s">
+      <c r="Q11" t="s">
         <v>417</v>
       </c>
-      <c r="J11" t="s">
+      <c r="R11" t="s">
         <v>418</v>
       </c>
-      <c r="K11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="S11" t="s">
         <v>419</v>
       </c>
-      <c r="M11" t="s">
+      <c r="T11" t="s">
         <v>420</v>
       </c>
-      <c r="N11" t="s">
+      <c r="U11" t="s">
         <v>421</v>
       </c>
-      <c r="O11" t="s">
+      <c r="W11" t="s">
         <v>422</v>
       </c>
-      <c r="P11" t="s">
+      <c r="X11" t="s">
         <v>423</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Y11" t="s">
         <v>424</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Z11" t="s">
         <v>425</v>
       </c>
-      <c r="S11" t="s">
+      <c r="AA11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB11" t="s">
         <v>426</v>
       </c>
-      <c r="T11" t="s">
+      <c r="AC11" t="s">
         <v>427</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AD11" t="s">
         <v>428</v>
       </c>
-      <c r="V11" t="s">
+      <c r="AE11" t="s">
         <v>429</v>
       </c>
-      <c r="W11" t="s">
+      <c r="AF11" t="s">
         <v>430</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AG11" t="s">
         <v>431</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AH11" t="s">
         <v>432</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AI11" t="s">
         <v>433</v>
       </c>
-      <c r="AA11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AJ11" t="s">
         <v>434</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AK11" t="s">
         <v>435</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AL11" t="s">
         <v>436</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AM11" t="s">
         <v>437</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AN11" t="s">
         <v>438</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AP11" t="s">
         <v>439</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AQ11" t="s">
         <v>440</v>
       </c>
-      <c r="AI11" t="s">
-        <v>441</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>443</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>444</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>446</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>447</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>448</v>
+      <c r="AS11" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" t="s">
+        <v>444</v>
+      </c>
+      <c r="F12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G12" t="s">
+        <v>446</v>
+      </c>
+      <c r="H12" t="s">
+        <v>447</v>
+      </c>
+      <c r="I12" t="s">
+        <v>448</v>
+      </c>
+      <c r="J12" t="s">
         <v>449</v>
       </c>
-      <c r="B12" t="s">
+      <c r="L12" t="s">
         <v>450</v>
       </c>
-      <c r="C12" t="s">
+      <c r="M12" t="s">
         <v>451</v>
       </c>
-      <c r="D12" t="s">
+      <c r="N12" t="s">
         <v>452</v>
       </c>
-      <c r="F12" t="s">
+      <c r="O12" t="s">
         <v>453</v>
       </c>
-      <c r="G12" t="s">
+      <c r="P12" t="s">
         <v>454</v>
       </c>
-      <c r="H12" t="s">
+      <c r="Q12" t="s">
         <v>455</v>
       </c>
-      <c r="I12" t="s">
+      <c r="R12" t="s">
         <v>456</v>
       </c>
-      <c r="J12" t="s">
+      <c r="S12" t="s">
         <v>457</v>
       </c>
-      <c r="L12" t="s">
+      <c r="T12" t="s">
         <v>458</v>
       </c>
-      <c r="M12" t="s">
+      <c r="U12" t="s">
         <v>459</v>
       </c>
-      <c r="N12" t="s">
+      <c r="W12" t="s">
         <v>460</v>
       </c>
-      <c r="O12" t="s">
+      <c r="X12" t="s">
         <v>461</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Y12" t="s">
         <v>462</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Z12" t="s">
         <v>463</v>
       </c>
-      <c r="R12" t="s">
+      <c r="AA12" t="s">
         <v>464</v>
       </c>
-      <c r="S12" t="s">
+      <c r="AB12" t="s">
         <v>465</v>
       </c>
-      <c r="T12" t="s">
+      <c r="AC12" t="s">
         <v>466</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AD12" t="s">
         <v>467</v>
       </c>
-      <c r="V12" t="s">
+      <c r="AE12" t="s">
         <v>468</v>
       </c>
-      <c r="W12" t="s">
+      <c r="AF12" t="s">
         <v>469</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AG12" t="s">
         <v>470</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AH12" t="s">
         <v>471</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AI12" t="s">
         <v>472</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AJ12" t="s">
         <v>473</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AK12" t="s">
         <v>474</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AL12" t="s">
         <v>475</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AM12" t="s">
         <v>476</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AN12" t="s">
         <v>477</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AP12" t="s">
         <v>478</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AQ12" t="s">
         <v>479</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>480</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>481</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>482</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>483</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>484</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>485</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>486</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>487</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" t="s">
+        <v>482</v>
+      </c>
+      <c r="F13" t="s">
+        <v>483</v>
+      </c>
+      <c r="G13" t="s">
+        <v>484</v>
+      </c>
+      <c r="H13" t="s">
+        <v>485</v>
+      </c>
+      <c r="I13" t="s">
+        <v>486</v>
+      </c>
+      <c r="J13" t="s">
+        <v>487</v>
+      </c>
+      <c r="L13" t="s">
+        <v>488</v>
+      </c>
+      <c r="M13" t="s">
+        <v>489</v>
+      </c>
+      <c r="N13" t="s">
         <v>490</v>
       </c>
-      <c r="D13" t="s">
+      <c r="O13" t="s">
         <v>491</v>
       </c>
-      <c r="F13" t="s">
+      <c r="P13" t="s">
         <v>492</v>
       </c>
-      <c r="G13" t="s">
+      <c r="Q13" t="s">
         <v>493</v>
       </c>
-      <c r="H13" t="s">
+      <c r="S13" t="s">
         <v>494</v>
       </c>
-      <c r="I13" t="s">
+      <c r="T13" t="s">
         <v>495</v>
       </c>
-      <c r="J13" t="s">
+      <c r="U13" t="s">
         <v>496</v>
       </c>
-      <c r="L13" t="s">
+      <c r="W13" t="s">
         <v>497</v>
       </c>
-      <c r="M13" t="s">
+      <c r="X13" t="s">
         <v>498</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Y13" t="s">
         <v>499</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Z13" t="s">
         <v>500</v>
       </c>
-      <c r="P13" t="s">
+      <c r="AA13" t="s">
         <v>501</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="AB13" t="s">
         <v>502</v>
       </c>
-      <c r="S13" t="s">
+      <c r="AC13" t="s">
         <v>503</v>
       </c>
-      <c r="T13" t="s">
+      <c r="AD13" t="s">
         <v>504</v>
       </c>
-      <c r="U13" t="s">
+      <c r="AE13" t="s">
         <v>505</v>
       </c>
-      <c r="V13" t="s">
+      <c r="AF13" t="s">
         <v>506</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AG13" t="s">
         <v>507</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AH13" t="s">
         <v>508</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AI13" t="s">
         <v>509</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AJ13" t="s">
         <v>510</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AK13" t="s">
         <v>511</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AL13" t="s">
         <v>512</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AM13" t="s">
         <v>513</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AN13" t="s">
         <v>514</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AP13" t="s">
         <v>515</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AQ13" t="s">
         <v>516</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>517</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>518</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>519</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>520</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>521</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>522</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>523</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>524</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>525</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>517</v>
+      </c>
+      <c r="B14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D14" t="s">
+        <v>520</v>
+      </c>
+      <c r="F14" t="s">
+        <v>521</v>
+      </c>
+      <c r="G14" t="s">
+        <v>522</v>
+      </c>
+      <c r="H14" t="s">
+        <v>523</v>
+      </c>
+      <c r="I14" t="s">
+        <v>524</v>
+      </c>
+      <c r="J14" t="s">
+        <v>525</v>
+      </c>
+      <c r="L14" t="s">
+        <v>526</v>
+      </c>
+      <c r="M14" t="s">
         <v>527</v>
       </c>
-      <c r="B14" t="s">
+      <c r="N14" t="s">
         <v>528</v>
       </c>
-      <c r="C14" t="s">
+      <c r="O14" t="s">
         <v>529</v>
       </c>
-      <c r="D14" t="s">
+      <c r="P14" t="s">
         <v>530</v>
       </c>
-      <c r="F14" t="s">
+      <c r="Q14" t="s">
         <v>531</v>
       </c>
-      <c r="G14" t="s">
+      <c r="R14" t="s">
         <v>532</v>
       </c>
-      <c r="H14" t="s">
+      <c r="S14" t="s">
         <v>533</v>
       </c>
-      <c r="I14" t="s">
+      <c r="T14" t="s">
         <v>534</v>
       </c>
-      <c r="J14" t="s">
+      <c r="U14" t="s">
         <v>535</v>
       </c>
-      <c r="L14" t="s">
+      <c r="W14" t="s">
         <v>536</v>
       </c>
-      <c r="M14" t="s">
+      <c r="X14" t="s">
         <v>537</v>
       </c>
-      <c r="N14" t="s">
+      <c r="Y14" t="s">
         <v>538</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Z14" t="s">
         <v>539</v>
       </c>
-      <c r="P14" t="s">
+      <c r="AA14" t="s">
         <v>540</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="AB14" t="s">
         <v>541</v>
       </c>
-      <c r="R14" t="s">
+      <c r="AC14" t="s">
         <v>542</v>
       </c>
-      <c r="S14" t="s">
+      <c r="AD14" t="s">
         <v>543</v>
       </c>
-      <c r="T14" t="s">
+      <c r="AE14" t="s">
         <v>544</v>
       </c>
-      <c r="U14" t="s">
+      <c r="AF14" t="s">
         <v>545</v>
       </c>
-      <c r="V14" t="s">
+      <c r="AG14" t="s">
         <v>546</v>
       </c>
-      <c r="W14" t="s">
+      <c r="AH14" t="s">
         <v>547</v>
       </c>
-      <c r="X14" t="s">
+      <c r="AI14" t="s">
         <v>548</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AJ14" t="s">
         <v>549</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AK14" t="s">
         <v>550</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AL14" t="s">
         <v>551</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AM14" t="s">
         <v>552</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AN14" t="s">
         <v>553</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AP14" t="s">
         <v>554</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AQ14" t="s">
         <v>555</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>556</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>558</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>559</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>560</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>561</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>562</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>563</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>564</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>565</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>556</v>
+      </c>
+      <c r="B15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C15" t="s">
+        <v>558</v>
+      </c>
+      <c r="D15" t="s">
+        <v>559</v>
+      </c>
+      <c r="F15" t="s">
+        <v>560</v>
+      </c>
+      <c r="G15" t="s">
+        <v>561</v>
+      </c>
+      <c r="H15" t="s">
+        <v>562</v>
+      </c>
+      <c r="I15" t="s">
+        <v>563</v>
+      </c>
+      <c r="J15" t="s">
+        <v>564</v>
+      </c>
+      <c r="L15" t="s">
+        <v>565</v>
+      </c>
+      <c r="M15" t="s">
+        <v>566</v>
+      </c>
+      <c r="O15" t="s">
         <v>567</v>
       </c>
-      <c r="B15" t="s">
+      <c r="P15" t="s">
         <v>568</v>
       </c>
-      <c r="C15" t="s">
+      <c r="Q15" t="s">
         <v>569</v>
       </c>
-      <c r="D15" t="s">
+      <c r="R15" t="s">
         <v>570</v>
       </c>
-      <c r="F15" t="s">
+      <c r="S15" t="s">
         <v>571</v>
       </c>
-      <c r="G15" t="s">
+      <c r="T15" t="s">
         <v>572</v>
       </c>
-      <c r="H15" t="s">
+      <c r="U15" t="s">
         <v>573</v>
       </c>
-      <c r="I15" t="s">
+      <c r="W15" t="s">
         <v>574</v>
       </c>
-      <c r="J15" t="s">
+      <c r="X15" t="s">
         <v>575</v>
       </c>
-      <c r="L15" t="s">
+      <c r="Y15" t="s">
         <v>576</v>
       </c>
-      <c r="M15" t="s">
+      <c r="Z15" t="s">
         <v>577</v>
       </c>
-      <c r="O15" t="s">
+      <c r="AA15" t="s">
         <v>578</v>
       </c>
-      <c r="P15" t="s">
+      <c r="AB15" t="s">
         <v>579</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="AC15" t="s">
         <v>580</v>
       </c>
-      <c r="R15" t="s">
+      <c r="AD15" t="s">
         <v>581</v>
       </c>
-      <c r="S15" t="s">
+      <c r="AE15" t="s">
         <v>582</v>
       </c>
-      <c r="T15" t="s">
+      <c r="AF15" t="s">
         <v>583</v>
       </c>
-      <c r="U15" t="s">
+      <c r="AG15" t="s">
         <v>584</v>
       </c>
-      <c r="V15" t="s">
+      <c r="AH15" t="s">
         <v>585</v>
       </c>
-      <c r="W15" t="s">
+      <c r="AI15" t="s">
         <v>586</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AJ15" t="s">
         <v>587</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AK15" t="s">
         <v>588</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AL15" t="s">
         <v>589</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AN15" t="s">
         <v>590</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AP15" t="s">
         <v>591</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AQ15" t="s">
         <v>592</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>593</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>594</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>595</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>597</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>598</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>599</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>600</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>601</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>602</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>603</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B16" t="s">
+        <v>594</v>
+      </c>
+      <c r="C16" t="s">
+        <v>595</v>
+      </c>
+      <c r="D16" t="s">
+        <v>596</v>
+      </c>
+      <c r="F16" t="s">
+        <v>597</v>
+      </c>
+      <c r="G16" t="s">
+        <v>598</v>
+      </c>
+      <c r="H16" t="s">
+        <v>599</v>
+      </c>
+      <c r="I16" t="s">
+        <v>600</v>
+      </c>
+      <c r="J16" t="s">
+        <v>601</v>
+      </c>
+      <c r="L16" t="s">
+        <v>602</v>
+      </c>
+      <c r="M16" t="s">
+        <v>603</v>
+      </c>
+      <c r="N16" t="s">
+        <v>604</v>
+      </c>
+      <c r="O16" t="s">
         <v>605</v>
       </c>
-      <c r="B16" t="s">
+      <c r="P16" t="s">
         <v>606</v>
       </c>
-      <c r="C16" t="s">
+      <c r="Q16" t="s">
         <v>607</v>
       </c>
-      <c r="D16" t="s">
+      <c r="R16" t="s">
         <v>608</v>
       </c>
-      <c r="F16" t="s">
+      <c r="S16" t="s">
         <v>609</v>
       </c>
-      <c r="G16" t="s">
+      <c r="T16" t="s">
         <v>610</v>
       </c>
-      <c r="H16" t="s">
+      <c r="U16" t="s">
         <v>611</v>
       </c>
-      <c r="I16" t="s">
+      <c r="W16" t="s">
         <v>612</v>
       </c>
-      <c r="J16" t="s">
+      <c r="X16" t="s">
         <v>613</v>
       </c>
-      <c r="L16" t="s">
+      <c r="Z16" t="s">
         <v>614</v>
       </c>
-      <c r="M16" t="s">
+      <c r="AA16" t="s">
         <v>615</v>
       </c>
-      <c r="N16" t="s">
+      <c r="AB16" t="s">
         <v>616</v>
       </c>
-      <c r="O16" t="s">
+      <c r="AC16" t="s">
         <v>617</v>
       </c>
-      <c r="P16" t="s">
+      <c r="AD16" t="s">
         <v>618</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="AF16" t="s">
         <v>619</v>
       </c>
-      <c r="R16" t="s">
+      <c r="AG16" t="s">
         <v>620</v>
       </c>
-      <c r="S16" t="s">
+      <c r="AH16" t="s">
         <v>621</v>
       </c>
-      <c r="T16" t="s">
+      <c r="AI16" t="s">
         <v>622</v>
       </c>
-      <c r="U16" t="s">
+      <c r="AJ16" t="s">
         <v>623</v>
       </c>
-      <c r="V16" t="s">
+      <c r="AK16" t="s">
         <v>624</v>
       </c>
-      <c r="W16" t="s">
+      <c r="AL16" t="s">
         <v>625</v>
       </c>
-      <c r="X16" t="s">
+      <c r="AN16" t="s">
         <v>626</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AP16" t="s">
         <v>627</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AQ16" t="s">
         <v>628</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>629</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>630</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>631</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>632</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>633</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>634</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>635</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>636</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>637</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>638</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>639</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>640</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>629</v>
+      </c>
+      <c r="B17" t="s">
+        <v>630</v>
+      </c>
+      <c r="C17" t="s">
+        <v>631</v>
+      </c>
+      <c r="D17" t="s">
+        <v>632</v>
+      </c>
+      <c r="F17" t="s">
+        <v>633</v>
+      </c>
+      <c r="G17" t="s">
+        <v>634</v>
+      </c>
+      <c r="H17" t="s">
+        <v>635</v>
+      </c>
+      <c r="I17" t="s">
+        <v>636</v>
+      </c>
+      <c r="J17" t="s">
+        <v>637</v>
+      </c>
+      <c r="L17" t="s">
+        <v>638</v>
+      </c>
+      <c r="M17" t="s">
+        <v>639</v>
+      </c>
+      <c r="N17" t="s">
+        <v>640</v>
+      </c>
+      <c r="O17" t="s">
+        <v>641</v>
+      </c>
+      <c r="P17" t="s">
         <v>642</v>
       </c>
-      <c r="B17" t="s">
+      <c r="Q17" t="s">
         <v>643</v>
       </c>
-      <c r="C17" t="s">
+      <c r="R17" t="s">
         <v>644</v>
       </c>
-      <c r="D17" t="s">
+      <c r="S17" t="s">
         <v>645</v>
       </c>
-      <c r="F17" t="s">
+      <c r="T17" t="s">
         <v>646</v>
       </c>
-      <c r="G17" t="s">
+      <c r="U17" t="s">
         <v>647</v>
       </c>
-      <c r="H17" t="s">
+      <c r="W17" t="s">
         <v>648</v>
       </c>
-      <c r="I17" t="s">
+      <c r="X17" t="s">
         <v>649</v>
       </c>
-      <c r="J17" t="s">
+      <c r="Z17" t="s">
         <v>650</v>
       </c>
-      <c r="L17" t="s">
+      <c r="AA17" t="s">
         <v>651</v>
       </c>
-      <c r="M17" t="s">
+      <c r="AB17" t="s">
         <v>652</v>
       </c>
-      <c r="N17" t="s">
+      <c r="AC17" t="s">
         <v>653</v>
       </c>
-      <c r="O17" t="s">
+      <c r="AD17" t="s">
         <v>654</v>
       </c>
-      <c r="P17" t="s">
+      <c r="AI17" t="s">
         <v>655</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="AJ17" t="s">
         <v>656</v>
       </c>
-      <c r="R17" t="s">
+      <c r="AK17" t="s">
         <v>657</v>
       </c>
-      <c r="S17" t="s">
+      <c r="AL17" t="s">
         <v>658</v>
       </c>
-      <c r="T17" t="s">
+      <c r="AM17" t="s">
         <v>659</v>
       </c>
-      <c r="U17" t="s">
+      <c r="AP17" t="s">
         <v>660</v>
       </c>
-      <c r="V17" t="s">
+      <c r="AQ17" t="s">
         <v>661</v>
-      </c>
-      <c r="W17" t="s">
-        <v>662</v>
-      </c>
-      <c r="X17" t="s">
-        <v>663</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>664</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>666</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>667</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>668</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>669</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>670</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>672</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>673</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>674</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>662</v>
+      </c>
+      <c r="B18" t="s">
+        <v>663</v>
+      </c>
+      <c r="C18" t="s">
+        <v>664</v>
+      </c>
+      <c r="D18" t="s">
+        <v>665</v>
+      </c>
+      <c r="F18" t="s">
+        <v>666</v>
+      </c>
+      <c r="G18" t="s">
+        <v>667</v>
+      </c>
+      <c r="H18" t="s">
+        <v>668</v>
+      </c>
+      <c r="I18" t="s">
+        <v>669</v>
+      </c>
+      <c r="J18" t="s">
+        <v>670</v>
+      </c>
+      <c r="L18" t="s">
+        <v>671</v>
+      </c>
+      <c r="M18" t="s">
+        <v>672</v>
+      </c>
+      <c r="N18" t="s">
+        <v>673</v>
+      </c>
+      <c r="O18" t="s">
+        <v>674</v>
+      </c>
+      <c r="P18" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q18" t="s">
         <v>676</v>
       </c>
-      <c r="B18" t="s">
+      <c r="R18" t="s">
         <v>677</v>
       </c>
-      <c r="C18" t="s">
+      <c r="S18" t="s">
         <v>678</v>
       </c>
-      <c r="D18" t="s">
+      <c r="T18" t="s">
         <v>679</v>
       </c>
-      <c r="F18" t="s">
+      <c r="U18" t="s">
         <v>680</v>
       </c>
-      <c r="G18" t="s">
+      <c r="X18" t="s">
         <v>681</v>
       </c>
-      <c r="H18" t="s">
+      <c r="Z18" t="s">
         <v>682</v>
       </c>
-      <c r="I18" t="s">
+      <c r="AA18" t="s">
         <v>683</v>
       </c>
-      <c r="J18" t="s">
+      <c r="AB18" t="s">
         <v>684</v>
       </c>
-      <c r="L18" t="s">
+      <c r="AC18" t="s">
         <v>685</v>
       </c>
-      <c r="M18" t="s">
+      <c r="AI18" t="s">
         <v>686</v>
       </c>
-      <c r="N18" t="s">
+      <c r="AJ18" t="s">
         <v>687</v>
       </c>
-      <c r="O18" t="s">
+      <c r="AK18" t="s">
         <v>688</v>
       </c>
-      <c r="P18" t="s">
+      <c r="AL18" t="s">
         <v>689</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="AM18" t="s">
         <v>690</v>
       </c>
-      <c r="R18" t="s">
+      <c r="AQ18" t="s">
         <v>691</v>
-      </c>
-      <c r="S18" t="s">
-        <v>692</v>
-      </c>
-      <c r="T18" t="s">
-        <v>693</v>
-      </c>
-      <c r="U18" t="s">
-        <v>694</v>
-      </c>
-      <c r="V18" t="s">
-        <v>695</v>
-      </c>
-      <c r="X18" t="s">
-        <v>696</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>698</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>699</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>700</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>701</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>702</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>703</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>704</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>705</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>692</v>
+      </c>
+      <c r="B19" t="s">
+        <v>693</v>
+      </c>
+      <c r="C19" t="s">
+        <v>694</v>
+      </c>
+      <c r="D19" t="s">
+        <v>695</v>
+      </c>
+      <c r="E19" t="s">
+        <v>696</v>
+      </c>
+      <c r="F19" t="s">
+        <v>697</v>
+      </c>
+      <c r="G19" t="s">
+        <v>698</v>
+      </c>
+      <c r="H19" t="s">
+        <v>699</v>
+      </c>
+      <c r="I19" t="s">
+        <v>700</v>
+      </c>
+      <c r="J19" t="s">
+        <v>701</v>
+      </c>
+      <c r="L19" t="s">
+        <v>702</v>
+      </c>
+      <c r="M19" t="s">
+        <v>703</v>
+      </c>
+      <c r="N19" t="s">
+        <v>704</v>
+      </c>
+      <c r="O19" t="s">
+        <v>705</v>
+      </c>
+      <c r="P19" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q19" t="s">
         <v>707</v>
       </c>
-      <c r="B19" t="s">
+      <c r="R19" t="s">
         <v>708</v>
       </c>
-      <c r="C19" t="s">
+      <c r="S19" t="s">
         <v>709</v>
       </c>
-      <c r="D19" t="s">
+      <c r="T19" t="s">
         <v>710</v>
       </c>
-      <c r="E19" t="s">
+      <c r="U19" t="s">
         <v>711</v>
       </c>
-      <c r="F19" t="s">
+      <c r="X19" t="s">
         <v>712</v>
       </c>
-      <c r="G19" t="s">
+      <c r="Z19" t="s">
         <v>713</v>
       </c>
-      <c r="H19" t="s">
+      <c r="AA19" t="s">
         <v>714</v>
       </c>
-      <c r="I19" t="s">
+      <c r="AB19" t="s">
         <v>715</v>
       </c>
-      <c r="J19" t="s">
+      <c r="AC19" t="s">
         <v>716</v>
       </c>
-      <c r="L19" t="s">
+      <c r="AI19" t="s">
         <v>717</v>
       </c>
-      <c r="M19" t="s">
+      <c r="AK19" t="s">
         <v>718</v>
       </c>
-      <c r="N19" t="s">
+      <c r="AL19" t="s">
         <v>719</v>
       </c>
-      <c r="O19" t="s">
+      <c r="AM19" t="s">
         <v>720</v>
-      </c>
-      <c r="P19" t="s">
-        <v>721</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>722</v>
-      </c>
-      <c r="R19" t="s">
-        <v>723</v>
-      </c>
-      <c r="S19" t="s">
-        <v>724</v>
-      </c>
-      <c r="T19" t="s">
-        <v>725</v>
-      </c>
-      <c r="U19" t="s">
-        <v>726</v>
-      </c>
-      <c r="V19" t="s">
-        <v>727</v>
-      </c>
-      <c r="X19" t="s">
-        <v>728</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>730</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>731</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>732</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>733</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>734</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>735</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>721</v>
+      </c>
+      <c r="B20" t="s">
+        <v>722</v>
+      </c>
+      <c r="C20" t="s">
+        <v>723</v>
+      </c>
+      <c r="D20" t="s">
+        <v>724</v>
+      </c>
+      <c r="E20" t="s">
+        <v>725</v>
+      </c>
+      <c r="F20" t="s">
+        <v>726</v>
+      </c>
+      <c r="G20" t="s">
+        <v>727</v>
+      </c>
+      <c r="H20" t="s">
+        <v>728</v>
+      </c>
+      <c r="I20" t="s">
+        <v>729</v>
+      </c>
+      <c r="J20" t="s">
+        <v>730</v>
+      </c>
+      <c r="L20" t="s">
+        <v>731</v>
+      </c>
+      <c r="M20" t="s">
+        <v>732</v>
+      </c>
+      <c r="N20" t="s">
+        <v>733</v>
+      </c>
+      <c r="O20" t="s">
+        <v>734</v>
+      </c>
+      <c r="P20" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>736</v>
+      </c>
+      <c r="R20" t="s">
         <v>737</v>
       </c>
-      <c r="B20" t="s">
+      <c r="S20" t="s">
         <v>738</v>
       </c>
-      <c r="C20" t="s">
+      <c r="T20" t="s">
         <v>739</v>
       </c>
-      <c r="D20" t="s">
+      <c r="U20" t="s">
         <v>740</v>
       </c>
-      <c r="E20" t="s">
+      <c r="X20" t="s">
         <v>741</v>
       </c>
-      <c r="F20" t="s">
+      <c r="Z20" t="s">
         <v>742</v>
       </c>
-      <c r="G20" t="s">
+      <c r="AA20" t="s">
         <v>743</v>
       </c>
-      <c r="H20" t="s">
+      <c r="AB20" t="s">
         <v>744</v>
       </c>
-      <c r="I20" t="s">
+      <c r="AC20" t="s">
         <v>745</v>
       </c>
-      <c r="J20" t="s">
+      <c r="AI20" t="s">
         <v>746</v>
       </c>
-      <c r="L20" t="s">
+      <c r="AK20" t="s">
         <v>747</v>
       </c>
-      <c r="M20" t="s">
+      <c r="AL20" t="s">
         <v>748</v>
       </c>
-      <c r="N20" t="s">
+      <c r="AM20" t="s">
         <v>749</v>
-      </c>
-      <c r="O20" t="s">
-        <v>750</v>
-      </c>
-      <c r="P20" t="s">
-        <v>751</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>752</v>
-      </c>
-      <c r="R20" t="s">
-        <v>753</v>
-      </c>
-      <c r="S20" t="s">
-        <v>754</v>
-      </c>
-      <c r="T20" t="s">
-        <v>755</v>
-      </c>
-      <c r="U20" t="s">
-        <v>756</v>
-      </c>
-      <c r="V20" t="s">
-        <v>757</v>
-      </c>
-      <c r="X20" t="s">
-        <v>758</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>759</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>761</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>762</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>763</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>764</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>765</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>750</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>751</v>
+      </c>
+      <c r="D21" t="s">
+        <v>752</v>
+      </c>
+      <c r="E21" t="s">
+        <v>753</v>
+      </c>
+      <c r="F21" t="s">
+        <v>754</v>
+      </c>
+      <c r="G21" t="s">
+        <v>755</v>
+      </c>
+      <c r="H21" t="s">
+        <v>756</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>757</v>
+      </c>
+      <c r="L21" t="s">
+        <v>758</v>
+      </c>
+      <c r="M21" t="s">
+        <v>759</v>
+      </c>
+      <c r="O21" t="s">
+        <v>760</v>
+      </c>
+      <c r="P21" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>762</v>
+      </c>
+      <c r="R21" t="s">
+        <v>763</v>
+      </c>
+      <c r="S21" t="s">
+        <v>764</v>
+      </c>
+      <c r="T21" t="s">
+        <v>765</v>
+      </c>
+      <c r="U21" t="s">
+        <v>766</v>
+      </c>
+      <c r="X21" t="s">
         <v>767</v>
       </c>
-      <c r="B21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="Z21" t="s">
         <v>768</v>
       </c>
-      <c r="D21" t="s">
+      <c r="AA21" t="s">
         <v>769</v>
       </c>
-      <c r="E21" t="s">
+      <c r="AB21" t="s">
         <v>770</v>
       </c>
-      <c r="F21" t="s">
+      <c r="AC21" t="s">
         <v>771</v>
       </c>
-      <c r="G21" t="s">
+      <c r="AI21" t="s">
         <v>772</v>
       </c>
-      <c r="H21" t="s">
+      <c r="AK21" t="s">
         <v>773</v>
       </c>
-      <c r="I21" t="s">
-        <v>215</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="AL21" t="s">
         <v>774</v>
       </c>
-      <c r="L21" t="s">
+      <c r="AM21" t="s">
         <v>775</v>
-      </c>
-      <c r="M21" t="s">
-        <v>776</v>
-      </c>
-      <c r="O21" t="s">
-        <v>777</v>
-      </c>
-      <c r="P21" t="s">
-        <v>778</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>779</v>
-      </c>
-      <c r="R21" t="s">
-        <v>780</v>
-      </c>
-      <c r="S21" t="s">
-        <v>781</v>
-      </c>
-      <c r="T21" t="s">
-        <v>782</v>
-      </c>
-      <c r="U21" t="s">
-        <v>783</v>
-      </c>
-      <c r="V21" t="s">
-        <v>784</v>
-      </c>
-      <c r="X21" t="s">
-        <v>785</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>786</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>787</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>788</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>789</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>790</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>791</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>792</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>776</v>
+      </c>
+      <c r="B22" t="s">
+        <v>777</v>
+      </c>
+      <c r="C22" t="s">
+        <v>778</v>
+      </c>
+      <c r="D22" t="s">
+        <v>779</v>
+      </c>
+      <c r="E22" t="s">
+        <v>725</v>
+      </c>
+      <c r="F22" t="s">
+        <v>780</v>
+      </c>
+      <c r="G22" t="s">
+        <v>781</v>
+      </c>
+      <c r="H22" t="s">
+        <v>782</v>
+      </c>
+      <c r="I22" t="s">
+        <v>783</v>
+      </c>
+      <c r="J22" t="s">
+        <v>784</v>
+      </c>
+      <c r="L22" t="s">
+        <v>785</v>
+      </c>
+      <c r="O22" t="s">
+        <v>786</v>
+      </c>
+      <c r="P22" t="s">
+        <v>787</v>
+      </c>
+      <c r="U22" t="s">
+        <v>788</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>789</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>790</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>791</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>792</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>793</v>
+      </c>
+      <c r="AM22" t="s">
         <v>794</v>
-      </c>
-      <c r="B22" t="s">
-        <v>795</v>
-      </c>
-      <c r="C22" t="s">
-        <v>796</v>
-      </c>
-      <c r="D22" t="s">
-        <v>797</v>
-      </c>
-      <c r="E22" t="s">
-        <v>741</v>
-      </c>
-      <c r="F22" t="s">
-        <v>798</v>
-      </c>
-      <c r="G22" t="s">
-        <v>799</v>
-      </c>
-      <c r="H22" t="s">
-        <v>800</v>
-      </c>
-      <c r="I22" t="s">
-        <v>801</v>
-      </c>
-      <c r="J22" t="s">
-        <v>802</v>
-      </c>
-      <c r="L22" t="s">
-        <v>803</v>
-      </c>
-      <c r="O22" t="s">
-        <v>804</v>
-      </c>
-      <c r="P22" t="s">
-        <v>805</v>
-      </c>
-      <c r="U22" t="s">
-        <v>806</v>
-      </c>
-      <c r="V22" t="s">
-        <v>807</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>808</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>809</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>810</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>811</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>812</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B23" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="C23" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="D23" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="E23" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="F23" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="G23" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="H23" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="I23" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="J23" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="L23" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="O23" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="P23" t="s">
-        <v>1030</v>
-      </c>
-      <c r="V23" t="s">
-        <v>826</v>
+        <v>1010</v>
       </c>
       <c r="Z23" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="AA23" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="AC23" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AI23" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="AL23" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="AM23" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="B24" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="C24" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="D24" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="E24" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="F24" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="G24" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="H24" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="I24" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="J24" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="L24" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z24" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="AA24" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="AC24" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="AI24" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="AL24" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="AM24" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="B25" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="C25" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="D25" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="F25" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="G25" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="H25" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="I25" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J25" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="L25" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="P25" t="s">
-        <v>1031</v>
+        <v>1011</v>
       </c>
       <c r="Z25" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="AA25" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="AI25" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="AL25" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="AM25" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="B26" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="C26" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="D26" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="F26" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="G26" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="H26" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="I26" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="L26" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="Z26" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="AA26" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="AM26" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="B27" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="C27" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="D27" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="G27" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="H27" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="I27" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="L27" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="Z27" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="AA27" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="AM27" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="B28" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="C28" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="D28" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="H28" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="I28" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="L28" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="Z28" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="AA28" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="AM28" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="B29" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="C29" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="D29" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="I29" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="L29" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="Z29" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="AA29" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="AM29" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="B30" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="C30" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="D30" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="I30" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="L30" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="Z30" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="AA30" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="AM30" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="B31" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="C31" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
       <c r="D31" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="L31" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="AA31" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="AM31" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
       <c r="B32" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
       <c r="D32" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
       <c r="L32" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="AA32" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="AM32" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="B33" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="D33" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="L33" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
       <c r="AM33" t="s">
-        <v>932</v>
+        <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="B34" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
       <c r="D34" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
       <c r="L34" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
       <c r="AM34" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
       <c r="B35" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
       <c r="D35" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="L35" t="s">
-        <v>941</v>
+        <v>921</v>
       </c>
       <c r="AM35" t="s">
-        <v>942</v>
+        <v>922</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>943</v>
+        <v>923</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1020</v>
       </c>
       <c r="D36" t="s">
-        <v>944</v>
+        <v>924</v>
       </c>
       <c r="L36" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
       <c r="AM36" t="s">
-        <v>946</v>
+        <v>926</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>947</v>
+        <v>927</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1021</v>
       </c>
       <c r="L37" t="s">
-        <v>948</v>
+        <v>928</v>
       </c>
       <c r="AM37" t="s">
-        <v>949</v>
+        <v>929</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>950</v>
+        <v>930</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1022</v>
       </c>
       <c r="L38" t="s">
-        <v>951</v>
+        <v>931</v>
       </c>
       <c r="AM38" t="s">
-        <v>952</v>
+        <v>932</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>953</v>
+        <v>933</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1023</v>
       </c>
       <c r="L39" t="s">
-        <v>954</v>
+        <v>934</v>
       </c>
       <c r="AM39" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>956</v>
+        <v>936</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1024</v>
       </c>
       <c r="L40" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
       <c r="AM40" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>959</v>
+        <v>939</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1025</v>
       </c>
       <c r="L41" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="AM41" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>962</v>
+        <v>942</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1026</v>
       </c>
       <c r="AM42" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>964</v>
+        <v>944</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1027</v>
       </c>
       <c r="AM43" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>966</v>
+        <v>946</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1028</v>
       </c>
       <c r="AM44" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>968</v>
+        <v>948</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1029</v>
       </c>
       <c r="AM45" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="AM46" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>972</v>
+        <v>952</v>
       </c>
       <c r="AM47" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>974</v>
+        <v>954</v>
       </c>
       <c r="AM48" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>976</v>
+        <v>956</v>
       </c>
       <c r="AM49" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>978</v>
+        <v>958</v>
       </c>
       <c r="AM50" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AM51" t="s">
-        <v>981</v>
+        <v>961</v>
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="AM52" t="s">
-        <v>983</v>
+        <v>963</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
       <c r="AM53" t="s">
-        <v>985</v>
+        <v>965</v>
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>986</v>
+        <v>966</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>987</v>
+        <v>967</v>
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>988</v>
+        <v>968</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>989</v>
+        <v>969</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>990</v>
+        <v>970</v>
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>991</v>
+        <v>971</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>992</v>
+        <v>972</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>993</v>
+        <v>973</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>995</v>
+        <v>975</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>996</v>
+        <v>976</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>997</v>
+        <v>977</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>998</v>
+        <v>978</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>999</v>
+        <v>979</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1001</v>
+        <v>981</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1002</v>
+        <v>982</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1003</v>
+        <v>983</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1004</v>
+        <v>984</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1005</v>
+        <v>985</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1006</v>
+        <v>986</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1007</v>
+        <v>987</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1009</v>
+        <v>989</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1010</v>
+        <v>990</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1011</v>
+        <v>991</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1012</v>
+        <v>992</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1014</v>
+        <v>994</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1015</v>
+        <v>995</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1016</v>
+        <v>996</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1017</v>
+        <v>997</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1018</v>
+        <v>998</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1019</v>
+        <v>999</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1020</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1021</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1003</v>
+        <v>983</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>

--- a/logic/SpaCy/training_data.xlsx
+++ b/logic/SpaCy/training_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\chatbot-1.1.7 - Copy\logic\SpaCy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\Python\chatbot-1.1.9\logic\SpaCy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE64066F-9B47-4651-8844-58A79DE129A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217632D2-9A32-4E39-997B-D1899524EF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF2410FF-7D8C-47DD-9664-B760251A13FA}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BF2410FF-7D8C-47DD-9664-B760251A13FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="1142">
   <si>
     <t>cls</t>
   </si>
@@ -221,6 +221,9 @@
     <t>im feeling bad today</t>
   </si>
   <si>
+    <t>who do you like to do in your free time</t>
+  </si>
+  <si>
     <t>who is xac hellven</t>
   </si>
   <si>
@@ -347,6 +350,9 @@
     <t>I feel bad</t>
   </si>
   <si>
+    <t>do you have any hobbies</t>
+  </si>
+  <si>
     <t xml:space="preserve">who is xac  </t>
   </si>
   <si>
@@ -470,6 +476,9 @@
     <t>I am feeling bad</t>
   </si>
   <si>
+    <t>tell me about your hobbies</t>
+  </si>
+  <si>
     <t>what do you know about xac hellven</t>
   </si>
   <si>
@@ -593,6 +602,9 @@
     <t>I am feeling horrible</t>
   </si>
   <si>
+    <t>what are your favorite activities?</t>
+  </si>
+  <si>
     <t>xac</t>
   </si>
   <si>
@@ -704,6 +716,9 @@
     <t>I am feeling fantastic</t>
   </si>
   <si>
+    <t>whats your favorite activities</t>
+  </si>
+  <si>
     <t>hellven</t>
   </si>
   <si>
@@ -1067,6 +1082,9 @@
     <t>I feel terrible</t>
   </si>
   <si>
+    <t>whats your hobbies</t>
+  </si>
+  <si>
     <t>what is xac</t>
   </si>
   <si>
@@ -1184,6 +1202,9 @@
     <t>I feel so bad about that</t>
   </si>
   <si>
+    <t>what do you like to do in your free time</t>
+  </si>
+  <si>
     <t>what is hellven</t>
   </si>
   <si>
@@ -1304,6 +1325,9 @@
     <t>dude im feeling horrible</t>
   </si>
   <si>
+    <t>okay so whats your current hobby</t>
+  </si>
+  <si>
     <t>what is xac hellven</t>
   </si>
   <si>
@@ -1418,6 +1442,9 @@
     <t>I feel like shit</t>
   </si>
   <si>
+    <t>alright what is your hobby</t>
+  </si>
+  <si>
     <t>tell me about xac</t>
   </si>
   <si>
@@ -1529,6 +1556,9 @@
     <t>im feeling like shit</t>
   </si>
   <si>
+    <t>so whats your hobbies</t>
+  </si>
+  <si>
     <t>tell me about xac hellven</t>
   </si>
   <si>
@@ -1646,6 +1676,9 @@
     <t>I feel like a total dick</t>
   </si>
   <si>
+    <t>alrighty your hobbies are</t>
+  </si>
+  <si>
     <t>tell me about isaac</t>
   </si>
   <si>
@@ -1760,6 +1793,9 @@
     <t>im fucking horrible</t>
   </si>
   <si>
+    <t>what do you do for fun</t>
+  </si>
+  <si>
     <t xml:space="preserve">who is the xac guy </t>
   </si>
   <si>
@@ -1874,6 +1910,9 @@
     <t>im feeling down</t>
   </si>
   <si>
+    <t>do you have any interests</t>
+  </si>
+  <si>
     <t>who is this xac guy I keep hearing about</t>
   </si>
   <si>
@@ -1982,6 +2021,9 @@
     <t>im not doing so well</t>
   </si>
   <si>
+    <t>what are your hobbies bro</t>
+  </si>
+  <si>
     <t>who is this xac hellven guy I have been hearing about</t>
   </si>
   <si>
@@ -2081,6 +2123,9 @@
     <t>im feeling sad</t>
   </si>
   <si>
+    <t>are there any activities that you enjoy</t>
+  </si>
+  <si>
     <t>access the youtube platform</t>
   </si>
   <si>
@@ -2174,6 +2219,9 @@
     <t>im feeling low</t>
   </si>
   <si>
+    <t>any hobbies you have that youre passionate about</t>
+  </si>
+  <si>
     <t>direct me to youtube please</t>
   </si>
   <si>
@@ -2261,6 +2309,9 @@
     <t>im not feeling great</t>
   </si>
   <si>
+    <t>do you like to do anything in your freetime</t>
+  </si>
+  <si>
     <t>take me to the youtube site</t>
   </si>
   <si>
@@ -2339,6 +2390,9 @@
     <t>im feeling abit blue</t>
   </si>
   <si>
+    <t>I want you to tell me what your hobbies are</t>
+  </si>
+  <si>
     <t>I want youtube to be opened</t>
   </si>
   <si>
@@ -2405,6 +2459,9 @@
     <t>im feeling upset</t>
   </si>
   <si>
+    <t>tell me what your hobby is</t>
+  </si>
+  <si>
     <t>switch on text to audio</t>
   </si>
   <si>
@@ -2459,6 +2516,9 @@
     <t>I want to ask how are you doing</t>
   </si>
   <si>
+    <t xml:space="preserve">tell me what you like to do </t>
+  </si>
+  <si>
     <t>turn on the voice reader</t>
   </si>
   <si>
@@ -3074,9 +3134,6 @@
     <t>hey whats your name</t>
   </si>
   <si>
-    <t>Cypher</t>
-  </si>
-  <si>
     <t>Lets create a cypher</t>
   </si>
   <si>
@@ -3092,10 +3149,136 @@
     <t>I want to cipher something</t>
   </si>
   <si>
-    <t>hobbies</t>
-  </si>
-  <si>
-    <t>any hobbies</t>
+    <t>encrypt the message using a cipher</t>
+  </si>
+  <si>
+    <t>develop a code to send secret messages</t>
+  </si>
+  <si>
+    <t>can you help me decipher this message?</t>
+  </si>
+  <si>
+    <t>do you know any techniques for breaking codes?</t>
+  </si>
+  <si>
+    <t>I need to secure my communications, can you suggest a cipher?</t>
+  </si>
+  <si>
+    <t>lets use a substitution cipher</t>
+  </si>
+  <si>
+    <t>lets create a hidden message</t>
+  </si>
+  <si>
+    <t>we need to exchange sensitive information securely. A cipher would be perfect for this</t>
+  </si>
+  <si>
+    <t>generate a cypher</t>
+  </si>
+  <si>
+    <t>generate a cipher</t>
+  </si>
+  <si>
+    <t>generate a cipher for me</t>
+  </si>
+  <si>
+    <t>generate a cypher for me</t>
+  </si>
+  <si>
+    <t>Decipher</t>
+  </si>
+  <si>
+    <t>decypher</t>
+  </si>
+  <si>
+    <t>I want to decypher something</t>
+  </si>
+  <si>
+    <t>I want to decrypt something</t>
+  </si>
+  <si>
+    <t>lets decrypt some text</t>
+  </si>
+  <si>
+    <t>how can we decrypt this text</t>
+  </si>
+  <si>
+    <t>lets decipher this text</t>
+  </si>
+  <si>
+    <t>help me remove the encryption on this text</t>
+  </si>
+  <si>
+    <t>lets cyper some text</t>
+  </si>
+  <si>
+    <t>lets decipher some text</t>
+  </si>
+  <si>
+    <t>Can you decrypt for me</t>
+  </si>
+  <si>
+    <t>decipher my text</t>
+  </si>
+  <si>
+    <t>I need something to be decrypted</t>
+  </si>
+  <si>
+    <t>I need something to be decrypted please</t>
+  </si>
+  <si>
+    <t>Decode some text</t>
+  </si>
+  <si>
+    <t>Decode this</t>
+  </si>
+  <si>
+    <t>I need this to be decoded</t>
+  </si>
+  <si>
+    <t>encrypt</t>
+  </si>
+  <si>
+    <t>decrypt</t>
+  </si>
+  <si>
+    <t>encryption</t>
+  </si>
+  <si>
+    <t>decryption</t>
+  </si>
+  <si>
+    <t>gen encrypt</t>
+  </si>
+  <si>
+    <t>gen decrypt</t>
+  </si>
+  <si>
+    <t>encrypt some text</t>
+  </si>
+  <si>
+    <t>decrypt this</t>
+  </si>
+  <si>
+    <t>decryption needed</t>
+  </si>
+  <si>
+    <t>decipher</t>
+  </si>
+  <si>
+    <t>empty everything</t>
+  </si>
+  <si>
+    <t>empty it all</t>
+  </si>
+  <si>
+    <t>remove it all</t>
+  </si>
+  <si>
+    <t>wipe away the stuff on my screen for me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please wipe the screen </t>
   </si>
   <si>
     <t>can you assist me with</t>
@@ -3128,19 +3311,157 @@
     <t xml:space="preserve">can you help  </t>
   </si>
   <si>
-    <t>Can you encrypt this text</t>
-  </si>
-  <si>
-    <t>I need a cipher algorith for</t>
-  </si>
-  <si>
-    <t>how can I create a secure encryption method</t>
-  </si>
-  <si>
-    <t>help me generate a secret code</t>
-  </si>
-  <si>
-    <t>how do I generate a secure encryption key</t>
+    <t>dude please help me out right now</t>
+  </si>
+  <si>
+    <t>what commands are there</t>
+  </si>
+  <si>
+    <t>hey what commands can I use</t>
+  </si>
+  <si>
+    <t>what do you do</t>
+  </si>
+  <si>
+    <t>what the fuck do you do</t>
+  </si>
+  <si>
+    <t>what utilities are you capable of</t>
+  </si>
+  <si>
+    <t>are there any utilities that you are capable of</t>
+  </si>
+  <si>
+    <t>utilitys</t>
+  </si>
+  <si>
+    <t>utilities</t>
+  </si>
+  <si>
+    <t>help me bro</t>
+  </si>
+  <si>
+    <t>bro help me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dude help </t>
+  </si>
+  <si>
+    <t>I need some help over here</t>
+  </si>
+  <si>
+    <t>options please</t>
+  </si>
+  <si>
+    <t>please options</t>
+  </si>
+  <si>
+    <t>assist me please</t>
+  </si>
+  <si>
+    <t>please assist me</t>
+  </si>
+  <si>
+    <t>bro assist me</t>
+  </si>
+  <si>
+    <t>I require aid immediately</t>
+  </si>
+  <si>
+    <t>how can you be of service to me</t>
+  </si>
+  <si>
+    <t>how can you be of use to me</t>
+  </si>
+  <si>
+    <t>can you give me a helping hand</t>
+  </si>
+  <si>
+    <t>what services do you offer</t>
+  </si>
+  <si>
+    <t>tell me about the services that you offer</t>
+  </si>
+  <si>
+    <t>hey what services are you capable of offering</t>
+  </si>
+  <si>
+    <t>how can you benefit me bro</t>
+  </si>
+  <si>
+    <t>bro how can you benefit me</t>
+  </si>
+  <si>
+    <t>Can you walk me through this?</t>
+  </si>
+  <si>
+    <t>Break this down for me</t>
+  </si>
+  <si>
+    <t>what can I do next</t>
+  </si>
+  <si>
+    <t>point me in the right direction</t>
+  </si>
+  <si>
+    <t>could you show me the ropes</t>
+  </si>
+  <si>
+    <t>show me how this all works</t>
+  </si>
+  <si>
+    <t>give me a rundown on what you can handle</t>
+  </si>
+  <si>
+    <t>give me a rundown of what you can handle</t>
+  </si>
+  <si>
+    <t>teach me how to use this</t>
+  </si>
+  <si>
+    <t>im confused - help me make sense of this</t>
+  </si>
+  <si>
+    <t>can you explain what you do</t>
+  </si>
+  <si>
+    <t>enlighten me on how you function</t>
+  </si>
+  <si>
+    <t>what can I do with this system</t>
+  </si>
+  <si>
+    <t>what can I do with this program</t>
+  </si>
+  <si>
+    <t>give me thw lowdown on how this operates</t>
+  </si>
+  <si>
+    <t>im not sure what do to can you guide me</t>
+  </si>
+  <si>
+    <t>I need directions on how to procees</t>
+  </si>
+  <si>
+    <t>give me a quick tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what do you do bro like for real </t>
+  </si>
+  <si>
+    <t>hey tell me about what you offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what can you offer me </t>
+  </si>
+  <si>
+    <t>yo my bad bro</t>
+  </si>
+  <si>
+    <t>that’s on me I am sorry</t>
+  </si>
+  <si>
+    <t>I didn’t mean that sorry</t>
   </si>
 </sst>
 </file>
@@ -3196,9 +3517,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{745DE268-A725-4159-A2D1-15CC4DE1786E}" name="Table1" displayName="Table1" ref="A1:AS100" totalsRowShown="0">
-  <autoFilter ref="A1:AS100" xr:uid="{745DE268-A725-4159-A2D1-15CC4DE1786E}"/>
-  <tableColumns count="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{745DE268-A725-4159-A2D1-15CC4DE1786E}" name="Table1" displayName="Table1" ref="A1:AT1048576" totalsRowShown="0">
+  <autoFilter ref="A1:AT1048576" xr:uid="{745DE268-A725-4159-A2D1-15CC4DE1786E}"/>
+  <tableColumns count="46">
     <tableColumn id="1" xr3:uid="{64514F79-4C71-4632-A941-BE36CBF0C5CC}" name="cls"/>
     <tableColumn id="2" xr3:uid="{4A684479-1901-4202-8826-A37DBB938DEE}" name="help"/>
     <tableColumn id="3" xr3:uid="{A0D8A05E-F2EC-4DCE-81E3-CC9E9E4B0F8C}" name="time"/>
@@ -3243,7 +3564,8 @@
     <tableColumn id="42" xr3:uid="{DD29E00A-F77F-4168-97A1-6E0D9D4A863D}" name="start_pomo"/>
     <tableColumn id="43" xr3:uid="{2D00A8F7-AB41-4F64-9AD7-9521C0F5F484}" name="stop_pomo"/>
     <tableColumn id="44" xr3:uid="{35061E03-85E0-4187-A8A6-1C2E6FDE4C8C}" name="checkapikeys"/>
-    <tableColumn id="45" xr3:uid="{302E07BD-FA02-4467-AC5E-C26D1CC02E3F}" name="Cypher"/>
+    <tableColumn id="45" xr3:uid="{302E07BD-FA02-4467-AC5E-C26D1CC02E3F}" name="cypher"/>
+    <tableColumn id="46" xr3:uid="{3468BB20-3FCE-49C4-A5B9-35564032E5C4}" name="decipher"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3566,10 +3888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EDE795-CCBF-4AD7-B9A5-DA56CD29A77A}">
-  <dimension ref="A1:AS94"/>
+  <dimension ref="A1:AT100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AS12" sqref="AS12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3900,7 @@
     <col min="10" max="44" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3709,13 +4031,16 @@
         <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="AS1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3780,3158 +4105,3497 @@
         <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AP2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AQ2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR2" t="s">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="AS2" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V3" t="s">
-        <v>1018</v>
+        <v>104</v>
       </c>
       <c r="W3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="X3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Y3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Z3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AA3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AD3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AF3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AG3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AH3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AI3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AJ3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AN3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AP3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AQ3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AR3" t="s">
-        <v>1007</v>
+        <v>1027</v>
       </c>
       <c r="AS3" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="R4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="T4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="U4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="V4" t="s">
-        <v>1019</v>
+        <v>146</v>
       </c>
       <c r="W4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="X4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Y4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Z4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AA4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AB4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AC4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AD4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AE4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AF4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AG4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AH4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AI4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AK4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AL4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AM4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AN4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AP4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AQ4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AR4" t="s">
-        <v>1008</v>
+        <v>1028</v>
       </c>
       <c r="AS4" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="R5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="T5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="U5" t="s">
-        <v>184</v>
+        <v>187</v>
+      </c>
+      <c r="V5" t="s">
+        <v>188</v>
       </c>
       <c r="W5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="X5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Y5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Z5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AA5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AB5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AC5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AD5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AE5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AF5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AH5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AI5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AJ5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AK5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AL5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AM5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AN5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AQ5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AR5" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="AS5" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N6" t="s">
         <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="R6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="S6" t="s">
+        <v>224</v>
+      </c>
+      <c r="T6" t="s">
+        <v>225</v>
+      </c>
+      <c r="U6" t="s">
+        <v>187</v>
+      </c>
+      <c r="V6" t="s">
+        <v>226</v>
+      </c>
+      <c r="W6" t="s">
+        <v>227</v>
+      </c>
+      <c r="X6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L7" t="s">
+        <v>258</v>
+      </c>
+      <c r="N7" t="s">
+        <v>259</v>
+      </c>
+      <c r="O7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>262</v>
+      </c>
+      <c r="R7" t="s">
+        <v>263</v>
+      </c>
+      <c r="S7" t="s">
+        <v>264</v>
+      </c>
+      <c r="T7" t="s">
+        <v>265</v>
+      </c>
+      <c r="U7" t="s">
+        <v>266</v>
+      </c>
+      <c r="V7" t="s">
+        <v>188</v>
+      </c>
+      <c r="W7" t="s">
+        <v>267</v>
+      </c>
+      <c r="X7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J8" t="s">
+        <v>296</v>
+      </c>
+      <c r="K8" t="s">
+        <v>297</v>
+      </c>
+      <c r="L8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M8" t="s">
+        <v>299</v>
+      </c>
+      <c r="N8" t="s">
+        <v>300</v>
+      </c>
+      <c r="O8" t="s">
+        <v>301</v>
+      </c>
+      <c r="P8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>303</v>
+      </c>
+      <c r="R8" t="s">
+        <v>304</v>
+      </c>
+      <c r="S8" t="s">
+        <v>305</v>
+      </c>
+      <c r="T8" t="s">
+        <v>306</v>
+      </c>
+      <c r="U8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V8" t="s">
+        <v>308</v>
+      </c>
+      <c r="W8" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>320</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>322</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>325</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>326</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>327</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" t="s">
+        <v>334</v>
+      </c>
+      <c r="H9" t="s">
+        <v>335</v>
+      </c>
+      <c r="I9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J9" t="s">
+        <v>337</v>
+      </c>
+      <c r="K9" t="s">
+        <v>338</v>
+      </c>
+      <c r="L9" t="s">
+        <v>339</v>
+      </c>
+      <c r="M9" t="s">
+        <v>340</v>
+      </c>
+      <c r="N9" t="s">
+        <v>341</v>
+      </c>
+      <c r="O9" t="s">
         <v>220</v>
       </c>
-      <c r="T6" t="s">
-        <v>221</v>
-      </c>
-      <c r="U6" t="s">
-        <v>184</v>
-      </c>
-      <c r="W6" t="s">
-        <v>222</v>
-      </c>
-      <c r="X6" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I7" t="s">
-        <v>250</v>
-      </c>
-      <c r="J7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L7" t="s">
-        <v>253</v>
-      </c>
-      <c r="N7" t="s">
-        <v>254</v>
-      </c>
-      <c r="O7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>257</v>
-      </c>
-      <c r="R7" t="s">
-        <v>258</v>
-      </c>
-      <c r="S7" t="s">
-        <v>259</v>
-      </c>
-      <c r="T7" t="s">
-        <v>260</v>
-      </c>
-      <c r="U7" t="s">
-        <v>261</v>
-      </c>
-      <c r="W7" t="s">
-        <v>262</v>
-      </c>
-      <c r="X7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>271</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>272</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>276</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>279</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>281</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" t="s">
-        <v>288</v>
-      </c>
-      <c r="H8" t="s">
-        <v>289</v>
-      </c>
-      <c r="I8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J8" t="s">
-        <v>291</v>
-      </c>
-      <c r="K8" t="s">
-        <v>292</v>
-      </c>
-      <c r="L8" t="s">
-        <v>293</v>
-      </c>
-      <c r="M8" t="s">
-        <v>294</v>
-      </c>
-      <c r="N8" t="s">
-        <v>295</v>
-      </c>
-      <c r="O8" t="s">
-        <v>296</v>
-      </c>
-      <c r="P8" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>298</v>
-      </c>
-      <c r="R8" t="s">
-        <v>299</v>
-      </c>
-      <c r="S8" t="s">
-        <v>300</v>
-      </c>
-      <c r="T8" t="s">
-        <v>301</v>
-      </c>
-      <c r="U8" t="s">
-        <v>302</v>
-      </c>
-      <c r="W8" t="s">
-        <v>61</v>
-      </c>
-      <c r="X8" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>308</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>312</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>313</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>314</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>315</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>316</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>317</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>318</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>321</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>322</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F9" t="s">
-        <v>328</v>
-      </c>
-      <c r="G9" t="s">
-        <v>329</v>
-      </c>
-      <c r="H9" t="s">
-        <v>330</v>
-      </c>
-      <c r="I9" t="s">
-        <v>331</v>
-      </c>
-      <c r="J9" t="s">
-        <v>332</v>
-      </c>
-      <c r="K9" t="s">
-        <v>333</v>
-      </c>
-      <c r="L9" t="s">
-        <v>334</v>
-      </c>
-      <c r="M9" t="s">
-        <v>335</v>
-      </c>
-      <c r="N9" t="s">
-        <v>336</v>
-      </c>
-      <c r="O9" t="s">
-        <v>216</v>
-      </c>
       <c r="P9" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="R9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="S9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="T9" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="U9" t="s">
-        <v>342</v>
+        <v>347</v>
+      </c>
+      <c r="V9" t="s">
+        <v>348</v>
       </c>
       <c r="W9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="X9" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Y9" t="s">
         <v>24</v>
       </c>
       <c r="Z9" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AA9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AB9" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AC9" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AD9" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AE9" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AF9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AG9" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AH9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AI9" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AJ9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AK9" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AL9" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AM9" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AN9" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AP9" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AQ9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AS9" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G10" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H10" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="I10" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="J10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M10" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="N10" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="O10" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P10" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="R10" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="S10" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="T10" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="U10" t="s">
-        <v>381</v>
+        <v>387</v>
+      </c>
+      <c r="V10" t="s">
+        <v>388</v>
       </c>
       <c r="W10" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="X10" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Y10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Z10" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="AA10" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="AB10" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AC10" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AD10" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AE10" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AF10" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AG10" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AH10" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AI10" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AJ10" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="AK10" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AL10" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AM10" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AN10" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AP10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="AQ10" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AS10" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C11" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D11" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E11" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F11" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="G11" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="H11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="I11" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="J11" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="K11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M11" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="N11" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="O11" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="P11" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="Q11" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="R11" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="S11" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="T11" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="U11" t="s">
-        <v>421</v>
+        <v>428</v>
+      </c>
+      <c r="V11" t="s">
+        <v>429</v>
       </c>
       <c r="W11" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="X11" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Y11" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="Z11" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AA11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB11" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="AC11" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AD11" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AE11" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AF11" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AG11" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AH11" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="AI11" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AJ11" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="AK11" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="AL11" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="AM11" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AN11" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="AP11" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="AQ11" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AS11" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+        <v>1041</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C12" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D12" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F12" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G12" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H12" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="I12" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="J12" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="L12" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="M12" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="N12" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="O12" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P12" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q12" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="R12" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="S12" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="T12" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="U12" t="s">
-        <v>459</v>
+        <v>467</v>
+      </c>
+      <c r="V12" t="s">
+        <v>468</v>
       </c>
       <c r="W12" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="X12" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="Y12" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="Z12" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="AA12" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="AB12" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AC12" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="AD12" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="AE12" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="AF12" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="AG12" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="AH12" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="AI12" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="AJ12" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="AK12" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="AL12" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="AM12" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="AN12" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="AP12" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="AQ12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F13" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="G13" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="H13" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="I13" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="J13" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="L13" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="M13" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="N13" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="O13" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="P13" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="Q13" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="S13" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="T13" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="U13" t="s">
-        <v>496</v>
+        <v>505</v>
+      </c>
+      <c r="V13" t="s">
+        <v>506</v>
       </c>
       <c r="W13" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="X13" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="Y13" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="Z13" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="AA13" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AB13" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="AC13" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AD13" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="AE13" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="AF13" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AG13" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AH13" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AI13" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="AJ13" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AK13" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AL13" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="AM13" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="AN13" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="AP13" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="AQ13" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B14" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="C14" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="D14" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="F14" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="G14" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="H14" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="I14" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="J14" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="L14" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="M14" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="N14" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="O14" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="P14" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="Q14" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="R14" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="S14" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="T14" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="U14" t="s">
-        <v>535</v>
+        <v>545</v>
+      </c>
+      <c r="V14" t="s">
+        <v>546</v>
       </c>
       <c r="W14" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="X14" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="Y14" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="Z14" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="AA14" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="AB14" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="AC14" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="AD14" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="AE14" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="AF14" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="AG14" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="AH14" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="AI14" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="AJ14" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="AK14" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="AL14" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="AM14" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="AN14" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="AP14" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="AQ14" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="B15" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="C15" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D15" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="F15" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="G15" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="H15" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="I15" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="J15" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="L15" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="M15" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="O15" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="P15" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="Q15" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="R15" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="S15" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="T15" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="U15" t="s">
-        <v>573</v>
+        <v>584</v>
+      </c>
+      <c r="V15" t="s">
+        <v>585</v>
       </c>
       <c r="W15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="X15" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="Y15" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="Z15" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="AA15" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="AB15" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="AC15" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="AD15" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AE15" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AF15" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AG15" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AH15" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AI15" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AJ15" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AK15" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AL15" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="AN15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AP15" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AQ15" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="B16" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="C16" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="D16" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F16" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="G16" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="H16" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="I16" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="J16" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="L16" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="M16" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="N16" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="O16" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="P16" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="Q16" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="R16" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="S16" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="T16" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="U16" t="s">
-        <v>611</v>
+        <v>623</v>
+      </c>
+      <c r="V16" t="s">
+        <v>624</v>
       </c>
       <c r="W16" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="X16" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="Z16" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="AA16" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="AB16" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="AC16" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="AD16" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="AF16" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="AG16" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="AH16" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="AI16" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="AJ16" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="AK16" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="AL16" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="AN16" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="AP16" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="AQ16" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="B17" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="C17" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="D17" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="F17" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="G17" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="H17" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="I17" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="J17" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="L17" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="M17" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="N17" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="O17" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="P17" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="Q17" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="R17" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="S17" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="T17" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="U17" t="s">
-        <v>647</v>
+        <v>660</v>
+      </c>
+      <c r="V17" t="s">
+        <v>661</v>
       </c>
       <c r="W17" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="X17" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="Z17" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="AA17" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="AB17" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="AC17" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="AD17" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="AI17" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="AJ17" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="AK17" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="AL17" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="AM17" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="AP17" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="AQ17" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="B18" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="C18" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="D18" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="F18" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="G18" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="H18" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="I18" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="J18" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="L18" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="M18" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="N18" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="O18" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="P18" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="Q18" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="R18" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="S18" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="T18" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="U18" t="s">
-        <v>680</v>
+        <v>694</v>
+      </c>
+      <c r="V18" t="s">
+        <v>695</v>
       </c>
       <c r="X18" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="Z18" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="AA18" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="AB18" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="AC18" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="AI18" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="AJ18" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="AK18" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="AL18" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="AM18" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="AQ18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="B19" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="C19" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="D19" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="E19" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="F19" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="G19" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="H19" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="I19" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="J19" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="L19" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="M19" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="N19" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="O19" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="P19" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="Q19" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="R19" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="S19" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="T19" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="U19" t="s">
-        <v>711</v>
+        <v>726</v>
+      </c>
+      <c r="V19" t="s">
+        <v>727</v>
       </c>
       <c r="X19" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="Z19" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="AA19" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="AB19" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="AC19" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="AI19" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="AK19" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="AL19" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="AM19" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="B20" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C20" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="D20" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="E20" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="F20" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="G20" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="H20" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="I20" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="J20" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="L20" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="M20" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="N20" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="O20" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="P20" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="Q20" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="R20" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="S20" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="T20" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="U20" t="s">
-        <v>740</v>
+        <v>756</v>
+      </c>
+      <c r="V20" t="s">
+        <v>757</v>
       </c>
       <c r="X20" t="s">
+        <v>758</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>761</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>762</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>763</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>764</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>765</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>766</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>767</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>768</v>
+      </c>
+      <c r="D21" t="s">
+        <v>769</v>
+      </c>
+      <c r="E21" t="s">
+        <v>770</v>
+      </c>
+      <c r="F21" t="s">
+        <v>771</v>
+      </c>
+      <c r="G21" t="s">
+        <v>772</v>
+      </c>
+      <c r="H21" t="s">
+        <v>773</v>
+      </c>
+      <c r="I21" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L21" t="s">
+        <v>775</v>
+      </c>
+      <c r="M21" t="s">
+        <v>776</v>
+      </c>
+      <c r="O21" t="s">
+        <v>777</v>
+      </c>
+      <c r="P21" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>779</v>
+      </c>
+      <c r="R21" t="s">
+        <v>780</v>
+      </c>
+      <c r="S21" t="s">
+        <v>781</v>
+      </c>
+      <c r="T21" t="s">
+        <v>782</v>
+      </c>
+      <c r="U21" t="s">
+        <v>783</v>
+      </c>
+      <c r="V21" t="s">
+        <v>784</v>
+      </c>
+      <c r="X21" t="s">
+        <v>785</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>786</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>787</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>788</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>789</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>790</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>791</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>792</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>793</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>794</v>
+      </c>
+      <c r="B22" t="s">
+        <v>795</v>
+      </c>
+      <c r="C22" t="s">
+        <v>796</v>
+      </c>
+      <c r="D22" t="s">
+        <v>797</v>
+      </c>
+      <c r="E22" t="s">
         <v>741</v>
       </c>
-      <c r="Z20" t="s">
-        <v>742</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>743</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>744</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>745</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>746</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>747</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>748</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>750</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" t="s">
-        <v>751</v>
-      </c>
-      <c r="D21" t="s">
-        <v>752</v>
-      </c>
-      <c r="E21" t="s">
-        <v>753</v>
-      </c>
-      <c r="F21" t="s">
-        <v>754</v>
-      </c>
-      <c r="G21" t="s">
-        <v>755</v>
-      </c>
-      <c r="H21" t="s">
-        <v>756</v>
-      </c>
-      <c r="I21" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21" t="s">
-        <v>757</v>
-      </c>
-      <c r="L21" t="s">
-        <v>758</v>
-      </c>
-      <c r="M21" t="s">
-        <v>759</v>
-      </c>
-      <c r="O21" t="s">
-        <v>760</v>
-      </c>
-      <c r="P21" t="s">
-        <v>761</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>762</v>
-      </c>
-      <c r="R21" t="s">
-        <v>763</v>
-      </c>
-      <c r="S21" t="s">
-        <v>764</v>
-      </c>
-      <c r="T21" t="s">
-        <v>765</v>
-      </c>
-      <c r="U21" t="s">
-        <v>766</v>
-      </c>
-      <c r="X21" t="s">
-        <v>767</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>768</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>769</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>770</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>771</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>772</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>773</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>774</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>776</v>
-      </c>
-      <c r="B22" t="s">
-        <v>777</v>
-      </c>
-      <c r="C22" t="s">
-        <v>778</v>
-      </c>
-      <c r="D22" t="s">
-        <v>779</v>
-      </c>
-      <c r="E22" t="s">
-        <v>725</v>
-      </c>
       <c r="F22" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="G22" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="H22" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="I22" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="J22" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="L22" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="O22" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="P22" t="s">
-        <v>787</v>
+        <v>805</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1139</v>
       </c>
       <c r="U22" t="s">
-        <v>788</v>
+        <v>806</v>
+      </c>
+      <c r="V22" t="s">
+        <v>807</v>
       </c>
       <c r="Z22" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="AA22" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="AC22" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="AI22" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="AL22" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="AM22" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="B23" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
       <c r="C23" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="D23" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="E23" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="F23" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="G23" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="H23" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="I23" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="J23" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="L23" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="O23" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="P23" t="s">
-        <v>1010</v>
+        <v>1030</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1140</v>
+      </c>
+      <c r="V23" t="s">
+        <v>826</v>
       </c>
       <c r="Z23" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="AA23" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="AC23" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AI23" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
       <c r="AL23" t="s">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="AM23" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="B24" t="s">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="C24" t="s">
-        <v>814</v>
+        <v>834</v>
       </c>
       <c r="D24" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="E24" t="s">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="F24" t="s">
-        <v>817</v>
+        <v>837</v>
       </c>
       <c r="G24" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
       <c r="H24" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="I24" t="s">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="J24" t="s">
-        <v>821</v>
+        <v>841</v>
       </c>
       <c r="L24" t="s">
-        <v>822</v>
+        <v>842</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1141</v>
       </c>
       <c r="Z24" t="s">
-        <v>823</v>
+        <v>843</v>
       </c>
       <c r="AA24" t="s">
-        <v>824</v>
+        <v>844</v>
       </c>
       <c r="AC24" t="s">
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="AI24" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
       <c r="AL24" t="s">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="AM24" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="B25" t="s">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="C25" t="s">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="D25" t="s">
-        <v>832</v>
+        <v>852</v>
       </c>
       <c r="F25" t="s">
-        <v>833</v>
+        <v>853</v>
       </c>
       <c r="G25" t="s">
-        <v>834</v>
+        <v>854</v>
       </c>
       <c r="H25" t="s">
-        <v>835</v>
+        <v>855</v>
       </c>
       <c r="I25" t="s">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="J25" t="s">
-        <v>837</v>
+        <v>857</v>
       </c>
       <c r="L25" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="P25" t="s">
-        <v>1011</v>
+        <v>1031</v>
       </c>
       <c r="Z25" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
       <c r="AA25" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="AI25" t="s">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="AL25" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="AM25" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>844</v>
+        <v>864</v>
       </c>
       <c r="B26" t="s">
-        <v>845</v>
+        <v>865</v>
       </c>
       <c r="C26" t="s">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="D26" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="F26" t="s">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="G26" t="s">
-        <v>849</v>
+        <v>869</v>
       </c>
       <c r="H26" t="s">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="I26" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
       <c r="L26" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
       <c r="Z26" t="s">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="AA26" t="s">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="AM26" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>856</v>
+        <v>876</v>
       </c>
       <c r="B27" t="s">
-        <v>857</v>
+        <v>877</v>
       </c>
       <c r="C27" t="s">
-        <v>858</v>
+        <v>878</v>
       </c>
       <c r="D27" t="s">
-        <v>859</v>
+        <v>879</v>
       </c>
       <c r="G27" t="s">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="H27" t="s">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="I27" t="s">
-        <v>862</v>
+        <v>882</v>
       </c>
       <c r="L27" t="s">
-        <v>863</v>
+        <v>883</v>
       </c>
       <c r="Z27" t="s">
-        <v>864</v>
+        <v>884</v>
       </c>
       <c r="AA27" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="AM27" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="B28" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="C28" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="D28" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="H28" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="I28" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="L28" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="Z28" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
       <c r="AA28" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="AM28" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="B29" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="C29" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="D29" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="I29" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="L29" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="Z29" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="AA29" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="AM29" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="B30" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="C30" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="D30" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
       <c r="I30" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="L30" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="Z30" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="AA30" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="AM30" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="B31" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="C31" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="D31" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="L31" t="s">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="AA31" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="AM31" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="B32" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="D32" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="L32" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="AA32" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="AM32" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="B33" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="D33" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="L33" t="s">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="AM33" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="B34" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="D34" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="L34" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="AM34" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="B35" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="D35" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="L35" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="AM35" t="s">
-        <v>922</v>
+        <v>942</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>923</v>
+        <v>943</v>
       </c>
       <c r="B36" t="s">
-        <v>1020</v>
+        <v>1081</v>
       </c>
       <c r="D36" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="L36" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="AM36" t="s">
-        <v>926</v>
+        <v>946</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>927</v>
+        <v>947</v>
       </c>
       <c r="B37" t="s">
-        <v>1021</v>
+        <v>1082</v>
       </c>
       <c r="L37" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="AM37" t="s">
-        <v>929</v>
+        <v>949</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="B38" t="s">
-        <v>1022</v>
+        <v>1083</v>
       </c>
       <c r="L38" t="s">
-        <v>931</v>
+        <v>951</v>
       </c>
       <c r="AM38" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="B39" t="s">
-        <v>1023</v>
+        <v>1084</v>
       </c>
       <c r="L39" t="s">
-        <v>934</v>
+        <v>954</v>
       </c>
       <c r="AM39" t="s">
-        <v>935</v>
+        <v>955</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>936</v>
+        <v>956</v>
       </c>
       <c r="B40" t="s">
-        <v>1024</v>
+        <v>1085</v>
       </c>
       <c r="L40" t="s">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="AM40" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="B41" t="s">
-        <v>1025</v>
+        <v>1086</v>
       </c>
       <c r="L41" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="AM41" t="s">
-        <v>941</v>
+        <v>961</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>942</v>
+        <v>962</v>
       </c>
       <c r="B42" t="s">
-        <v>1026</v>
+        <v>1087</v>
       </c>
       <c r="AM42" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="B43" t="s">
-        <v>1027</v>
+        <v>1088</v>
       </c>
       <c r="AM43" t="s">
-        <v>945</v>
+        <v>965</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="B44" t="s">
-        <v>1028</v>
+        <v>1089</v>
       </c>
       <c r="AM44" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
       <c r="B45" t="s">
-        <v>1029</v>
+        <v>1090</v>
       </c>
       <c r="AM45" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>950</v>
+        <v>970</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1091</v>
       </c>
       <c r="AM46" t="s">
-        <v>951</v>
+        <v>971</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>952</v>
+        <v>972</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1092</v>
       </c>
       <c r="AM47" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>954</v>
+        <v>974</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1093</v>
       </c>
       <c r="AM48" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>956</v>
+        <v>976</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1094</v>
       </c>
       <c r="AM49" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>958</v>
+        <v>978</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1095</v>
       </c>
       <c r="AM50" t="s">
-        <v>959</v>
+        <v>979</v>
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>960</v>
+        <v>980</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1096</v>
       </c>
       <c r="AM51" t="s">
-        <v>961</v>
+        <v>981</v>
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>962</v>
+        <v>982</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1097</v>
       </c>
       <c r="AM52" t="s">
-        <v>963</v>
+        <v>983</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>964</v>
+        <v>984</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1098</v>
       </c>
       <c r="AM53" t="s">
-        <v>965</v>
+        <v>985</v>
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>966</v>
+        <v>986</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>967</v>
+        <v>987</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>968</v>
+        <v>988</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>969</v>
+        <v>989</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>970</v>
+        <v>990</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>971</v>
+        <v>991</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>972</v>
+        <v>992</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>973</v>
+        <v>993</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>974</v>
+        <v>994</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>975</v>
+        <v>995</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1010</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1017</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1004</v>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
